--- a/TestCase/TestCaseTTH.xlsx
+++ b/TestCase/TestCaseTTH.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piseumo\Desktop\Sodam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piseumo\Desktop\Sodam\TestCase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2290ACB5-51C6-4223-83C1-14C2D346D033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584621C1-2B43-46C9-9A20-19B24A9CD9B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7ACD227-042E-496B-990A-C02EFE6A0BF7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{A7ACD227-042E-496B-990A-C02EFE6A0BF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Testcase" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="254">
   <si>
     <t>입력값</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -1013,6 +1013,21 @@
   </si>
   <si>
     <t>Invalid column type 오류 발생</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELETE FROM Product WHERE product_id = 1;</t>
+  </si>
+  <si>
+    <t>Error Code: 1451. Cannot delete or update a parent row: a foreign key constraint fails (`sodam`.`product_price`, CONSTRAINT `FK_PP_Product` FOREIGN KEY (`product_id`) REFERENCES `product` (`product_id`))</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0031 sec</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.031 sec</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1347,13 +1362,13 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="11" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="11" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="11" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="11" applyFill="1" applyAlignment="1">
@@ -1691,9 +1706,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D89EE23-B240-4F75-A27D-E1B6020D8554}">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H26" sqref="H26"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1711,10 +1726,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="21"/>
+      <c r="G1" s="22"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F2" s="5" t="s">
@@ -1741,13 +1756,13 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
       <c r="F5" s="9" t="s">
         <v>15</v>
       </c>
@@ -2093,7 +2108,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>20</v>
       </c>
@@ -2115,8 +2130,8 @@
       <c r="G20" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>227</v>
+      <c r="H20" s="2" t="s">
+        <v>230</v>
       </c>
       <c r="I20" s="14" t="s">
         <v>60</v>
@@ -2258,7 +2273,7 @@
       </c>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="165" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>28</v>
       </c>
@@ -2280,7 +2295,15 @@
       <c r="G25" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="J25" s="1"/>
+      <c r="H25" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="I25" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>252</v>
+      </c>
       <c r="K25" s="1"/>
     </row>
     <row r="26" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
@@ -2934,6 +2957,7 @@
     <hyperlink ref="I21" location="Product!A5" display="PASS" xr:uid="{7E8BCDF1-B2B7-405F-B563-4FA74669AFEA}"/>
     <hyperlink ref="I23" location="Product!A7" display="PASS" xr:uid="{623C1634-DA33-44B5-9A0A-982408E1032D}"/>
     <hyperlink ref="I24" location="Product!A8" display="PASS" xr:uid="{E56AC82C-3B4A-4429-AD9F-B93E06CDAD20}"/>
+    <hyperlink ref="I25" location="Product!A9" display="PASS" xr:uid="{CB189510-6D9D-42BA-B46E-BB1282D5B47C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3065,10 +3089,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF09A374-A999-4B81-A430-C972CF611ADA}">
-  <dimension ref="A2:J8"/>
+  <dimension ref="A2:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3118,7 +3142,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -3150,7 +3174,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="2" t="s">
         <v>91</v>
       </c>
@@ -3180,7 +3204,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="20" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -3209,7 +3233,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="20" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -3238,7 +3262,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="20" t="s">
         <v>247</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -3267,7 +3291,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="20" t="s">
         <v>248</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -3295,6 +3319,35 @@
         <v>245</v>
       </c>
       <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" ht="99" x14ac:dyDescent="0.3">
+      <c r="A9" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" t="s">
+        <v>250</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E9" s="18">
+        <v>45728.794699074075</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>251</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3307,6 +3360,7 @@
     <hyperlink ref="A5" location="Testcase!A21" display="TC-PR-002" xr:uid="{5003DD96-8F69-4A54-8F51-4C3467979C41}"/>
     <hyperlink ref="A7" location="Testcase!A23" display="TC-PR-004" xr:uid="{96602370-6BBC-469E-96E0-68E53D6BD990}"/>
     <hyperlink ref="A8" location="Testcase!A24" display="TC-PR-005" xr:uid="{F7188A28-EEC9-48DA-AEB9-DE4272AA4B17}"/>
+    <hyperlink ref="A9" location="Testcase!A25" display="TC-PR-006" xr:uid="{E454319A-ED8E-42EF-AB41-4E0543F96151}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestCase/TestCaseTTH.xlsx
+++ b/TestCase/TestCaseTTH.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piseumo\Desktop\Sodam\TestCase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584621C1-2B43-46C9-9A20-19B24A9CD9B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819CC4C6-5C2A-4CD2-940A-13A92AA5EC34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{A7ACD227-042E-496B-990A-C02EFE6A0BF7}"/>
   </bookViews>
@@ -16,9 +16,10 @@
     <sheet name="Testcase" sheetId="1" r:id="rId1"/>
     <sheet name="Customer" sheetId="16" r:id="rId2"/>
     <sheet name="Product" sheetId="20" r:id="rId3"/>
-    <sheet name="Store" sheetId="21" r:id="rId4"/>
-    <sheet name="Payment" sheetId="22" r:id="rId5"/>
-    <sheet name="Delivery" sheetId="23" r:id="rId6"/>
+    <sheet name="Product_Link" sheetId="24" r:id="rId4"/>
+    <sheet name="Store" sheetId="21" r:id="rId5"/>
+    <sheet name="Payment" sheetId="22" r:id="rId6"/>
+    <sheet name="Delivery" sheetId="23" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Testcase!$A$7:$N$7</definedName>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="278">
   <si>
     <t>입력값</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -364,18 +365,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>INSERT INTO Warehouse_Orders_Log (request_id, status) VALUES (1, '입고 완료');</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE Warehouse_Inventory SET quantity = quantity - 5 WHERE product_id = 1;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>INSERT INTO Product_Price (product_id, current_price, final_price, reason) VALUES (1, 1000, 900, '할인 적용');</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>할인율이 100% 초과 또는 음수일 때 오류가 발생한다.</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -388,18 +377,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>변동 로그에 '입고 완료' 상태가 기록된다.</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>재고가 감소하고 출고 로그가 남는다.</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>가격 변동 로그에 "할인 적용" 사유가 기록된다.</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>"할인율은 0 ~ 100% 사이여야 합니다." 오류</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -428,34 +405,10 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>입고 시 재고 변동 로그가 생성된다.</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>출고 요청 시 상품 재고가 감소한다.</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품 가격이 변경될 때 이력이 남는다.</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>유효기간을 과거 날짜로 업데이트한다.</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>INSERT INTO Warehouse_Orders_Requests (warehouse_id, type, status) VALUES (1, '입고', '입고 완료');</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>입고 완료 시 재고 및 로그가 갱신된다.</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>새로운 상품 입고 시 재고와 이력 정보가 갱신된다</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>유통기한이 지난 상품이 자동으로 삭제되는지 확인</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -493,15 +446,6 @@
   </si>
   <si>
     <t>TC-PR-013</t>
-  </si>
-  <si>
-    <t>TC-PR-014</t>
-  </si>
-  <si>
-    <t>TC-PR-015</t>
-  </si>
-  <si>
-    <t>TC-PR-016</t>
   </si>
   <si>
     <t>TC-EM-002</t>
@@ -1016,9 +960,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>DELETE FROM Product WHERE product_id = 1;</t>
-  </si>
-  <si>
     <t>Error Code: 1451. Cannot delete or update a parent row: a foreign key constraint fails (`sodam`.`product_price`, CONSTRAINT `FK_PP_Product` FOREIGN KEY (`product_id`) REFERENCES `product` (`product_id`))</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1028,6 +969,640 @@
   </si>
   <si>
     <t>0.031 sec</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error Code: 1452. Cannot add or update a child row: a foreign key constraint fails (`sodam`.`product`, CONSTRAINT `FK_Product_Category` FOREIGN KEY (`category_id`) REFERENCES `category` (`category_id`))</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0016 sec</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 row(s) returned</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT INTO Discounts (rate) VALUES (110);</t>
+  </si>
+  <si>
+    <t>할인율은 0 ~ 100% 사이여야 합니다. 오류</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 row(s) affected</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>할인율 입력시 rate 칼럼 값은 0~100 사이의 값만 입력이 되도록 제약사항 추가</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error Code: 3819. Check constraint 'chk_discount_rate' is violated.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>할인율이 등록 되면 할인 적용된 상품 가격이 자동으로 적용되어 로그가 기록된다</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>할인 테이블에 데이터 INSERT시 Product Price 테이블에도 자동으로 데이터가 들어간다.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT INTO Discounts (reason,rate,price_id) VALUES ('할인적용',10,1);</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT INTO Discounts (reason,rate,price_id) VALUES ('할인적용',10,1);</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CALL ApplyDiscount(1, 20, '가나다 할인', 30);</t>
+  </si>
+  <si>
+    <t>문서 
+링크</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRIGGER</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROCEDURE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+INSERT INTO Discounts (rate, reason, start, end, price_id)
+VALUES (10, '은우 할인', NOW(), DATE_ADD(NOW(), INTERVAL 7 DAY), 2000003);</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로시저/트리거 ID</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로시저/트리거 이름</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>목적</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세내용</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성날짜</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-PR-PT-001</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>after_discount_insert</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DISCOUNTS 테이블에 데이터가 들어가면(가격 할인을 하면), PRODUCT_PRICE 테이블에 자동으로 상품 가격 변동이 된 데이터 값이 들어갈 수 있도록 제작</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-PR-PT-002</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELIMITER //
+CREATE PROCEDURE ApplyDiscount(
+    IN p_product_id INT,
+    IN p_discount_rate DECIMAL(5,2),
+    IN p_reason VARCHAR(255),
+    IN p_days INT
+)
+BEGIN
+    DECLARE original_price INT;
+    DECLARE latest_price_id BIGINT;
+    SELECT price_id, final_price INTO latest_price_id, original_price
+    FROM Product_Price
+    WHERE product_id = p_product_id
+    ORDER BY date_time DESC
+    LIMIT 1;
+    IF latest_price_id IS NOT NULL THEN
+        INSERT INTO Product_Price (product_id, current_price, type, delta, reason, final_price, date_time)
+        VALUES (
+            p_product_id,
+            original_price,
+            'Decrease',
+            (original_price * p_discount_rate / 100),
+            p_reason,
+            (original_price - (original_price * p_discount_rate / 100)),
+            NOW()
+        );
+        INSERT INTO Discounts (rate, reason, start, end, price_id)
+        VALUES (p_discount_rate, p_reason, NOW(), DATE_ADD(NOW(), INTERVAL p_days DAY), latest_price_id);
+    ELSE
+        SIGNAL SQLSTATE '45000'
+        SET MESSAGE_TEXT = 'Error: No price record found for the given product_id';
+    END IF;
+END //
+DELIMITER ;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>속성</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ApplyDiscount</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-PR-PT-001 트리거의 문제점을 보안하기 위해 설계. DISCOUNTS 테이블에 데이터가 들어가는 순간 어떤 상품인지 알려고하면 여러 과정을 거쳐야지 상품의 ID나 상품 이름을 알 수있는 문제를 해결하기 위해 TC-PR-PT-001 트리거를 삭제하고 해당 프로시저를 사용하여 문제 해결</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DELIMITER //
+ CREATE TRIGGER after_discount_insert AFTER INSERT ON Discounts FOR EACH ROW BEGIN DECLARE original_price INT; DECLARE latest_price_id BIGINT; DECLARE latest_product_id BIGINT; -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>최신</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> price_id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>찾기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>최근의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가격</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>데이터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) SELECT price_id, product_id, final_price INTO latest_price_id, latest_product_id, original_price FROM ( SELECT price_id, product_id, final_price FROM Product_Price WHERE product_id = (SELECT product_id FROM Product_Price WHERE price_id = NEW.price_id) ORDER BY date_time DESC LIMIT 1 ) AS latest_price; -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>할인된</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가격</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>계산</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> INSERT INTO Product_Price (product_id, current_price, type, delta, reason, final_price, date_time) VALUES ( latest_product_id, -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상품</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> ID original_price, -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기존</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가격</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 'Decrease', -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>할인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>적용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (original_price * NEW.rate / 100), -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>할인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>금액</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> NEW.reason, -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>할인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사유</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (original_price - (original_price * NEW.rate / 100)), -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>할인된</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>최종</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가격</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> NOW() -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>현재</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> ); END; // DELIMITER ;</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.156 sec</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.108 sec</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>정상적으로 원래 목적은 달성했으나, 데이터를 insert할때 논리적 문제로 FAIL</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로시저 호출 시 상품 ID대신 상품명으로 호출할지 여부(속도가 느려짐)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>할인 테이블에 데이터 INSERT시 Product Price 테이블에도 자동으로 데이터가 들어간다.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>할인 테이블에 데이터 INSERT시 Product Price 테이블에도 자동으로 데이터가 들어감</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Discounts 테이블에 데이터 INSERT시 Discounts 테이블에만 데이터 삽입이 이루어짐</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Discounts테이블에 데이터 삽입시 Product Price 테이블에도 데이터가 들어가게 해야됨</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1035,7 +1610,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="182" formatCode="yyyy&quot;년&quot;\ m&quot;월&quot;\ d&quot;일&quot;;@"/>
+  </numFmts>
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1154,8 +1732,40 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1242,6 +1852,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1263,7 +1879,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="12">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1300,8 +1916,11 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1365,22 +1984,53 @@
     <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="11" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="11" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="11" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="11" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="12">
+  <cellStyles count="13">
     <cellStyle name="20% - 강조색1" xfId="6" builtinId="30"/>
     <cellStyle name="20% - 강조색2" xfId="7" builtinId="34"/>
     <cellStyle name="20% - 강조색3" xfId="8" builtinId="38"/>
     <cellStyle name="20% - 강조색4" xfId="9" builtinId="42"/>
     <cellStyle name="20% - 강조색6" xfId="10" builtinId="50"/>
+    <cellStyle name="40% - 강조색5" xfId="12" builtinId="47"/>
     <cellStyle name="강조색1" xfId="5" builtinId="29"/>
     <cellStyle name="나쁨" xfId="2" builtinId="27"/>
     <cellStyle name="보통" xfId="3" builtinId="28"/>
@@ -1704,11 +2354,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D89EE23-B240-4F75-A27D-E1B6020D8554}">
-  <dimension ref="A1:K61"/>
+  <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I25" sqref="I25"/>
+      <pane ySplit="7" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1726,10 +2376,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="22"/>
+      <c r="G1" s="23"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F2" s="5" t="s">
@@ -1756,13 +2406,13 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
       <c r="F5" s="9" t="s">
         <v>15</v>
       </c>
@@ -1827,16 +2477,16 @@
         <v>36</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="H8" s="2"/>
       <c r="J8" s="1"/>
@@ -1851,16 +2501,16 @@
         <v>36</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="H9" s="2"/>
       <c r="J9" s="1"/>
@@ -1868,23 +2518,23 @@
     </row>
     <row r="10" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="H10" s="2"/>
       <c r="J10" s="1"/>
@@ -1892,23 +2542,23 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="H11" s="2"/>
       <c r="J11" s="1"/>
@@ -1916,23 +2566,23 @@
     </row>
     <row r="12" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="H12" s="2"/>
       <c r="J12" s="1"/>
@@ -1940,23 +2590,23 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="H13" s="2"/>
       <c r="J13" s="1"/>
@@ -1964,23 +2614,23 @@
     </row>
     <row r="14" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="H14" s="2"/>
       <c r="J14" s="1"/>
@@ -1988,23 +2638,23 @@
     </row>
     <row r="15" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="E15" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="H15" s="2"/>
       <c r="J15" s="1"/>
@@ -2012,23 +2662,23 @@
     </row>
     <row r="16" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="H16" s="2"/>
       <c r="J16" s="1"/>
@@ -2036,23 +2686,23 @@
     </row>
     <row r="17" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="H17" s="2"/>
       <c r="J17" s="1"/>
@@ -2060,23 +2710,23 @@
     </row>
     <row r="18" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="E18" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="H18" s="2"/>
       <c r="J18" s="1"/>
@@ -2084,7 +2734,7 @@
     </row>
     <row r="19" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>8</v>
@@ -2093,16 +2743,16 @@
         <v>40</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="H19" s="1"/>
       <c r="J19" s="1"/>
@@ -2119,7 +2769,7 @@
         <v>41</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>58</v>
@@ -2131,13 +2781,13 @@
         <v>50</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="I20" s="14" t="s">
         <v>60</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="K20" s="1"/>
     </row>
@@ -2152,7 +2802,7 @@
         <v>41</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>58</v>
@@ -2164,13 +2814,13 @@
         <v>49</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="I21" s="19" t="s">
         <v>59</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="K21" s="1"/>
     </row>
@@ -2185,25 +2835,25 @@
         <v>41</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>52</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="I22" s="19" t="s">
         <v>59</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="K22" s="1"/>
     </row>
@@ -2230,13 +2880,13 @@
         <v>67</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="I23" s="19" t="s">
         <v>59</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="K23" s="1"/>
     </row>
@@ -2251,25 +2901,25 @@
         <v>41</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>68</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="I24" s="19" t="s">
         <v>59</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="K24" s="1"/>
     </row>
@@ -2296,17 +2946,17 @@
         <v>73</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="I25" s="19" t="s">
         <v>59</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="165" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>29</v>
       </c>
@@ -2315,7 +2965,7 @@
         <v>42</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>58</v>
@@ -2326,7 +2976,15 @@
       <c r="G26" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J26" s="1"/>
+      <c r="H26" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="I26" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>239</v>
+      </c>
       <c r="K26" s="1"/>
     </row>
     <row r="27" spans="1:11" ht="33" x14ac:dyDescent="0.3">
@@ -2338,7 +2996,7 @@
         <v>43</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E27" s="13" t="s">
         <v>57</v>
@@ -2349,555 +3007,513 @@
       <c r="G27" s="2" t="s">
         <v>80</v>
       </c>
+      <c r="H27" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I27" s="19" t="s">
+        <v>59</v>
+      </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
     <row r="28" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>97</v>
+        <v>246</v>
       </c>
       <c r="E28" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>81</v>
+        <v>248</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>87</v>
+        <v>247</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I28" s="21" t="s">
+        <v>60</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
     <row r="29" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>57</v>
+        <v>81</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>58</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>82</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="I29" s="21" t="s">
+        <v>60</v>
       </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="B30" s="1"/>
+        <v>100</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C30" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>57</v>
+        <v>91</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>58</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>57</v>
+        <v>92</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>58</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
     <row r="32" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>58</v>
+        <v>97</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A33" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>9</v>
-      </c>
+    <row r="33" spans="1:11" ht="66" x14ac:dyDescent="0.3">
+      <c r="A33" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" s="1"/>
       <c r="C33" s="2" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>58</v>
+        <v>106</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A34" s="7" t="s">
-        <v>116</v>
+    <row r="34" spans="1:11" ht="66" x14ac:dyDescent="0.3">
+      <c r="A34" s="8" t="s">
+        <v>103</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="2" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F34" s="2" t="s">
-        <v>105</v>
+      <c r="F34" s="17" t="s">
+        <v>110</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
     <row r="35" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A35" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="B35" s="1"/>
+      <c r="A35" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="C35" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="E35" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F35" s="2" t="s">
-        <v>107</v>
+      <c r="F35" s="17" t="s">
+        <v>111</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-    </row>
-    <row r="36" spans="1:11" ht="66" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="B36" s="1"/>
+        <v>128</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="C36" s="2" t="s">
-        <v>120</v>
+        <v>31</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E36" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F36" s="2" t="s">
-        <v>122</v>
+      <c r="F36" s="17" t="s">
+        <v>113</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-    </row>
-    <row r="37" spans="1:11" ht="66" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B37" s="1"/>
+        <v>129</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="C37" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F37" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E37" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F37" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
     </row>
     <row r="38" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>57</v>
+        <v>121</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>58</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E39" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F39" s="17" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>57</v>
+        <v>135</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>58</v>
       </c>
       <c r="F40" s="17" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E41" s="12" t="s">
-        <v>58</v>
+        <v>138</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="F41" s="17" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>57</v>
+        <v>141</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>58</v>
       </c>
       <c r="F42" s="17" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A43" s="8" t="s">
-        <v>147</v>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E43" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F43" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="66" x14ac:dyDescent="0.3">
-      <c r="A44" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="9"/>
+      <c r="B44" s="1"/>
       <c r="C44" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E44" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F44" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A45" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="9"/>
+      <c r="B45" s="1"/>
       <c r="C45" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F45" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>158</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A46" s="9"/>
+      <c r="B46" s="1"/>
       <c r="C46" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="9"/>
       <c r="B47" s="1"/>
       <c r="C47" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="9"/>
-      <c r="B48" s="1"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A48" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="C48" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="9"/>
-      <c r="B49" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F48" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A49" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="C49" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="9"/>
-      <c r="B50" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F49" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="132" x14ac:dyDescent="0.3">
+      <c r="A50" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="C50" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F50" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
-        <v>22</v>
+        <v>164</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>164</v>
+        <v>158</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="E51" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F51" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A52" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E52" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F52" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="132" x14ac:dyDescent="0.3">
-      <c r="A53" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E53" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F53" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A54" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E54" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F54" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>176</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="1"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="1"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="1"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
@@ -2910,15 +3526,6 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="1"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="1"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A7:N7" xr:uid="{7D89EE23-B240-4F75-A27D-E1B6020D8554}"/>
@@ -2958,6 +3565,10 @@
     <hyperlink ref="I23" location="Product!A7" display="PASS" xr:uid="{623C1634-DA33-44B5-9A0A-982408E1032D}"/>
     <hyperlink ref="I24" location="Product!A8" display="PASS" xr:uid="{E56AC82C-3B4A-4429-AD9F-B93E06CDAD20}"/>
     <hyperlink ref="I25" location="Product!A9" display="PASS" xr:uid="{CB189510-6D9D-42BA-B46E-BB1282D5B47C}"/>
+    <hyperlink ref="I26" location="Product!A10" display="PASS" xr:uid="{5E5D8DD4-B664-46A5-8F03-DF29E136DB83}"/>
+    <hyperlink ref="I27" location="Product!A11" display="PASS" xr:uid="{8750CEB0-74FE-4540-BA7D-252808363D70}"/>
+    <hyperlink ref="I29" location="Product!A13" display="FAIL" xr:uid="{CF15E949-6C74-4FF6-91B7-958EE84586CC}"/>
+    <hyperlink ref="I28" location="Product!A12" display="FAIL" xr:uid="{78281A62-6F2D-48E9-84A5-7E9FE2E1AB7E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2987,34 +3598,34 @@
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>62</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="33" x14ac:dyDescent="0.3">
@@ -3022,19 +3633,19 @@
         <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="E3" s="18">
         <v>45727.839618055557</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>60</v>
@@ -3043,10 +3654,10 @@
         <v>50</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="33" x14ac:dyDescent="0.3">
@@ -3054,19 +3665,19 @@
         <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="E4" s="18">
         <v>45727.854421296295</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>59</v>
@@ -3075,10 +3686,10 @@
         <v>50</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -3089,10 +3700,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF09A374-A999-4B81-A430-C972CF611ADA}">
-  <dimension ref="A2:J9"/>
+  <dimension ref="A2:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3100,170 +3711,172 @@
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.5" customWidth="1"/>
     <col min="3" max="3" width="43.125" customWidth="1"/>
-    <col min="4" max="4" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.125" customWidth="1"/>
-    <col min="8" max="8" width="32.875" customWidth="1"/>
-    <col min="9" max="9" width="36.75" customWidth="1"/>
-    <col min="10" max="10" width="32.75" customWidth="1"/>
+    <col min="4" max="4" width="12.25" customWidth="1"/>
+    <col min="5" max="5" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.125" customWidth="1"/>
+    <col min="9" max="9" width="28.75" customWidth="1"/>
+    <col min="10" max="10" width="29.25" customWidth="1"/>
+    <col min="11" max="11" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>161</v>
+        <v>210</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>251</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>233</v>
+        <v>146</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>162</v>
+        <v>217</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="J2" s="16" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+      <c r="K2" s="16" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A3" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="E3" s="18">
+      <c r="D3" s="24"/>
+      <c r="E3" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="F3" s="18">
         <v>45727.839618055557</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="H3" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
-      <c r="B4" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="E4" s="18">
+      <c r="J3" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="30"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="18">
         <v>45727.854421296295</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H4" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
+      <c r="J4" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="E5" s="18">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F5" s="18">
         <v>45727.906504629631</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H5" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
+      <c r="J5" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A6" s="29" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="E6" s="18">
+        <v>227</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F6" s="18">
         <v>45727.901932870373</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H6" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
-        <v>247</v>
+      <c r="J6" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
+        <v>232</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>65</v>
@@ -3271,87 +3884,303 @@
       <c r="C7" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="E7" s="18">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F7" s="18">
         <v>45727.907893518517</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A8" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F8" s="18">
+        <v>45727.910671296297</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="G7" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
-        <v>248</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="E8" s="18">
-        <v>45727.910671296297</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" ht="99" x14ac:dyDescent="0.3">
-      <c r="A9" s="20" t="s">
+      <c r="J8" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" ht="132" x14ac:dyDescent="0.3">
+      <c r="A9" s="29" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F9" s="18">
+        <v>45728.794699074075</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F10" s="18">
+        <v>45728.819004629629</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A11" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F11" s="18">
+        <v>45728.821087962962</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="F12" s="18">
+        <v>45729.850254629629</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="30"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>252</v>
+      </c>
+      <c r="E13" s="24"/>
+      <c r="F13" s="18">
+        <v>45728.904421296298</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="30"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="E9" s="18">
-        <v>45728.794699074075</v>
-      </c>
-      <c r="F9" s="2" t="s">
+      <c r="D14" s="32" t="s">
         <v>253</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="E14" s="24"/>
+      <c r="F14" s="18">
+        <v>45728.862754629627</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="H14" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>251</v>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="F15" s="18">
+        <v>45728.844004629631</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="30"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="18">
+        <v>45728.850254629629</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="14">
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
     <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="E12:E14"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
@@ -3361,12 +4190,111 @@
     <hyperlink ref="A7" location="Testcase!A23" display="TC-PR-004" xr:uid="{96602370-6BBC-469E-96E0-68E53D6BD990}"/>
     <hyperlink ref="A8" location="Testcase!A24" display="TC-PR-005" xr:uid="{F7188A28-EEC9-48DA-AEB9-DE4272AA4B17}"/>
     <hyperlink ref="A9" location="Testcase!A25" display="TC-PR-006" xr:uid="{E454319A-ED8E-42EF-AB41-4E0543F96151}"/>
+    <hyperlink ref="A10" location="Testcase!A26" display="TC-PR-007" xr:uid="{98471197-EF70-4C18-9A80-3152F5BFBBFF}"/>
+    <hyperlink ref="A11" location="Testcase!A27" display="TC-PR-008" xr:uid="{33A32BD7-4542-400D-8704-3548AFA7E140}"/>
+    <hyperlink ref="A15" location="Testcase!A29" display="TC-PR-010" xr:uid="{B4BCDD2B-DD07-4B34-91DE-9DC3BCCDF70E}"/>
+    <hyperlink ref="A12" location="Testcase!A28" display="TC-PR-009" xr:uid="{EDB43B30-BA2A-4B28-A209-893EF6C03358}"/>
+    <hyperlink ref="D13" location="Product_Link!A3" display="TRIGGER" xr:uid="{DCEFB688-03A7-423F-A176-9E29C01FDF3F}"/>
+    <hyperlink ref="D14" location="Product_Link!A4" display="PROCEDURE" xr:uid="{00590F7A-1476-440E-AB91-8E05A7D10550}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA8DBD4-BFDB-4208-A158-376E89EA9DCF}">
+  <dimension ref="A2:G4"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.875" customWidth="1"/>
+    <col min="5" max="5" width="101.875" customWidth="1"/>
+    <col min="6" max="6" width="19.5" customWidth="1"/>
+    <col min="7" max="7" width="23.125" customWidth="1"/>
+    <col min="8" max="8" width="14.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="175.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>269</v>
+      </c>
+      <c r="F3" s="31">
+        <v>45728</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="F4" s="31">
+        <v>45729</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A3" location="Product!A11" display="TC-PR-PT-001" xr:uid="{3E9BE82B-9431-478B-AE0F-90633985E859}"/>
+    <hyperlink ref="A4" location="Product!A11" display="TC-PR-PT-002" xr:uid="{0914FBBC-62D4-46FC-BCBC-6A3EB7B59F93}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{451C4A51-9690-43BE-9F3A-73533E711DB8}">
   <dimension ref="A2:J13"/>
   <sheetViews>
@@ -3390,54 +4318,54 @@
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>62</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="E3" s="18">
         <v>45727.870196759257</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>59</v>
@@ -3446,56 +4374,56 @@
         <v>50</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="E4" s="18">
         <v>45727.879166666666</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>60</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="E5" s="18">
         <v>45727.884097222224</v>
@@ -3505,133 +4433,133 @@
         <v>59</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="E6" s="18">
         <v>45727.881423611114</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="G6" s="15" t="s">
         <v>59</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="E7" s="18">
         <v>45727.882337962961</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>59</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="E8" s="18">
         <v>45727.883425925924</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="G8" s="15" t="s">
         <v>59</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="E9" s="18">
         <v>45727.884097222224</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="G9" s="15" t="s">
         <v>59</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="2" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="E10" s="18">
         <v>45727.884097222224</v>
@@ -3640,11 +4568,11 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="B11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="E11" s="18">
         <v>45728.884097222224</v>
@@ -3653,10 +4581,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="E12" s="18">
         <v>45729.884097222224</v>
@@ -3665,10 +4593,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="E13" s="18">
         <v>45730.884097222224</v>
@@ -3681,7 +4609,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{444E93D6-ED11-4590-A7D7-036BA4610650}">
   <dimension ref="A2:J5"/>
   <sheetViews>
@@ -3705,34 +4633,34 @@
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>62</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="33" x14ac:dyDescent="0.3">
@@ -3740,19 +4668,19 @@
         <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="E3" s="18">
         <v>45727.839618055557</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>60</v>
@@ -3761,10 +4689,10 @@
         <v>50</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="33" x14ac:dyDescent="0.3">
@@ -3772,19 +4700,19 @@
         <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="E4" s="18">
         <v>45727.854421296295</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>59</v>
@@ -3793,15 +4721,15 @@
         <v>50</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -3810,7 +4738,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F50FCE08-A9A6-4483-84DE-98EAA6AAEB1B}">
   <dimension ref="A2:J5"/>
   <sheetViews>
@@ -3834,34 +4762,34 @@
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>62</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="33" x14ac:dyDescent="0.3">
@@ -3869,19 +4797,19 @@
         <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="E3" s="18">
         <v>45727.839618055557</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>60</v>
@@ -3890,10 +4818,10 @@
         <v>50</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="33" x14ac:dyDescent="0.3">
@@ -3901,19 +4829,19 @@
         <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="E4" s="18">
         <v>45727.854421296295</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>59</v>
@@ -3922,15 +4850,15 @@
         <v>50</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/TestCase/TestCaseTTH.xlsx
+++ b/TestCase/TestCaseTTH.xlsx
@@ -8,18 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piseumo\Desktop\Sodam\TestCase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819CC4C6-5C2A-4CD2-940A-13A92AA5EC34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414BED0D-6982-4F55-B322-9BFD562F7161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{A7ACD227-042E-496B-990A-C02EFE6A0BF7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A7ACD227-042E-496B-990A-C02EFE6A0BF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Testcase" sheetId="1" r:id="rId1"/>
-    <sheet name="Customer" sheetId="16" r:id="rId2"/>
-    <sheet name="Product" sheetId="20" r:id="rId3"/>
-    <sheet name="Product_Link" sheetId="24" r:id="rId4"/>
-    <sheet name="Store" sheetId="21" r:id="rId5"/>
-    <sheet name="Payment" sheetId="22" r:id="rId6"/>
-    <sheet name="Delivery" sheetId="23" r:id="rId7"/>
+    <sheet name="Product" sheetId="20" r:id="rId2"/>
+    <sheet name="Product_Link" sheetId="24" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Testcase!$A$7:$N$7</definedName>
@@ -43,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="290">
   <si>
     <t>입력값</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -906,27 +902,6 @@
   <si>
     <t>0.016 sec</t>
     <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>m</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>이승용</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.015 sec</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 row(s) affected Rows matched: 1  Changed: 1  Warnings: 0</t>
-  </si>
-  <si>
-    <t>Error Code: 1364. Field 'quantity' doesn't have a default value</t>
-  </si>
-  <si>
-    <t>TC-EM-011</t>
   </si>
   <si>
     <t>SELECT * FROM Product WHERE product_id = 9999999;</t>
@@ -1605,13 +1580,148 @@
     <t>Discounts테이블에 데이터 삽입시 Product Price 테이블에도 데이터가 들어가게 해야됨</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>1 row(s) affected Rows matched: 1  Changed: 1  Warnings: 0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>유효기간은 현재 날짜 이후여야 합니다. 오류</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 row(s) affected Rows matched: 1  Changed: 1  Warnings: 0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>유효기간을 과거 날짜로 업데이트 안되도록 제약조건 추가 할 것</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-PR-PT-003</t>
+  </si>
+  <si>
+    <t>DELIMITER //
+CREATE TRIGGER prevent_past_expire_date
+BEFORE UPDATE ON Product
+FOR EACH ROW
+BEGIN
+    IF NEW.expire_date &lt; CURDATE() THEN
+        SIGNAL SQLSTATE '45000'
+        SET MESSAGE_TEXT = 'Error: Cannot set expire_date to a past date';
+    END IF;
+END;
+//
+DELIMITER ;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prevent_past_expire_date</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품의 유통기한을 과거로 업데이트를 방지하기 위함</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>과거로 업데이트와 함께 inset로 방지하기 위해 트리거를 추가했음</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error Code: 1644. Error: 유효기간은 과거 날짜로 수정 할 수 없습니다.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-PR-012</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동삭제 X 조회시 결과 O</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로시저 사용하여 유통기한 삭제 로직을 생성 해야됨</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-PR-PT-004</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeleteExpiredProducts</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+DELIMITER //
+CREATE PROCEDURE DeleteExpiredProducts()
+BEGIN
+    DELETE FROM Product
+    WHERE expire_date IS NOT NULL
+    AND (
+        -- 델리/치킨/초밥 (category_id = 1): 유통기한 1일 남으면 삭제
+        (category_id = 1 AND expire_date &lt; DATE_SUB(CURDATE(), INTERVAL 1 DAY))
+        -- 라면/즉석식품/통조림 (category_id = 2): 유통기한 3개월(90일) 남으면 삭제
+        OR (category_id = 2 AND expire_date &lt; DATE_SUB(CURDATE(), INTERVAL 90 DAY))
+        -- 베이커리/잼 (category_id = 3): 유통기한 1주일(7일) 남으면 삭제
+        OR (category_id = 3 AND expire_date &lt; DATE_SUB(CURDATE(), INTERVAL 7 DAY))
+        -- 냉장/냉동/밀키트 (category_id = 4): 유통기한 6개월(180일) 남으면 삭제
+        OR (category_id = 4 AND expire_date &lt; DATE_SUB(CURDATE(), INTERVAL 180 DAY))
+        -- 과자/시리얼 (category_id = 5): 유통기한 1개월(30일) 남으면 삭제
+        OR (category_id = 5 AND expire_date &lt; DATE_SUB(CURDATE(), INTERVAL 30 DAY))
+        -- 커피/차 (category_id = 6): 유통기한 3개월(90일) 남으면 삭제
+        OR (category_id = 6 AND expire_date &lt; DATE_SUB(CURDATE(), INTERVAL 90 DAY))
+        -- 생수/음료 (category_id = 7): 유통기한 3개월(90일) 남으면 삭제
+        OR (category_id = 7 AND expire_date &lt; DATE_SUB(CURDATE(), INTERVAL 90 DAY))
+        -- 과일 (category_id = 8): 유통기한 1주일(7일) 남으면 삭제
+        OR (category_id = 8 AND expire_date &lt; DATE_SUB(CURDATE(), INTERVAL 7 DAY))
+        -- 쌀/잡곡 (category_id = 9): 유통기한 6개월(180일) 남으면 삭제
+        OR (category_id = 9  AND expire_date &lt; DATE_SUB(CURDATE(), INTERVAL 180 DAY))
+        -- 채소 (category_id = 10): 유통기한 2주일(14일) 남으면 삭제
+        OR (category_id = 10  AND expire_date &lt; DATE_SUB(CURDATE(), INTERVAL 14 DAY))
+        -- 견과 (category_id = 11): 유통기한 3개월(90일) 남으면 삭제
+        OR (category_id = 11  AND expire_date &lt; DATE_SUB(CURDATE(), INTERVAL 90 DAY))
+        -- 수산물/건어물 (category_id = 12): 유통기한 1주일(7일) 남으면 삭제
+        OR (category_id = 12  AND expire_date &lt; DATE_SUB(CURDATE(), INTERVAL 7 DAY))
+        -- 정육/계란 (category_id = 13): 유통기한 1주일(7일) 남으면 삭제
+        OR (category_id = 13  AND expire_date &lt; DATE_SUB(CURDATE(), INTERVAL 7 DAY))
+        -- 장류/양념/제빵 (category_id = 14): 유통기한 3개월(90일) 남으면 삭제
+        OR (category_id = 14  AND expire_date &lt; DATE_SUB(CURDATE(), INTERVAL 90 DAY))
+        -- 우유/유제품 (category_id = 15): 유통기한 1주일(7일) 남으면 삭제
+        OR (category_id = 15  AND expire_date &lt; DATE_SUB(CURDATE(), INTERVAL 7 DAY))
+		-- 두부/김치/반찬 (category_id = 15): 유통기한 1주일(7일) 남으면 삭제
+        OR (category_id = 15  AND expire_date &lt; DATE_SUB(CURDATE(), INTERVAL 7 DAY))
+    );
+END;
+//
+DELIMITER ;
+SET GLOBAL event_scheduler = ON;
+DELIMITER //
+CREATE EVENT AutoDeleteExpiredProducts
+ON SCHEDULE EVERY 1 DAY
+STARTS TIMESTAMP(CURDATE(), '00:00:00')
+DO CALL DeleteExpiredProducts();
+//
+DELIMITER ;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into product (category_id, name, main_image, detail_image, expire_date) values(1,'1분 더미 테스트 상품','aaa','aaa', NOW() + INTERVAL 2 MINUTE); / SELECT * FROM product
+WHERE DATE(expire_date) = '2025-03-14'
+ORDER BY expire_date DESC
+LIMIT 1;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT INTO Product (name, expire_date) VALUES ('테스트상품', DATE_SUB(NOW(), INTERVAL 1 DAY));</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="182" formatCode="yyyy&quot;년&quot;\ m&quot;월&quot;\ d&quot;일&quot;;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;년&quot;\ m&quot;월&quot;\ d&quot;일&quot;;@"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -1742,16 +1852,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
@@ -1763,6 +1863,15 @@
       <color theme="1"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="17">
@@ -1920,7 +2029,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1987,41 +2096,47 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="11" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="11" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="11" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="11" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -2357,8 +2472,8 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I28" sqref="I28"/>
+      <pane ySplit="7" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2376,10 +2491,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="23"/>
+      <c r="G1" s="30"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F2" s="5" t="s">
@@ -2406,13 +2521,13 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
       <c r="F5" s="9" t="s">
         <v>15</v>
       </c>
@@ -2787,7 +2902,7 @@
         <v>60</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="K20" s="1"/>
     </row>
@@ -2814,7 +2929,7 @@
         <v>49</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="I21" s="19" t="s">
         <v>59</v>
@@ -2841,13 +2956,13 @@
         <v>58</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>52</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="I22" s="19" t="s">
         <v>59</v>
@@ -2880,7 +2995,7 @@
         <v>67</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="I23" s="19" t="s">
         <v>59</v>
@@ -2913,7 +3028,7 @@
         <v>68</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="I24" s="19" t="s">
         <v>59</v>
@@ -2946,13 +3061,13 @@
         <v>73</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="I25" s="19" t="s">
         <v>59</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="K25" s="1"/>
     </row>
@@ -2977,13 +3092,13 @@
         <v>51</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="I26" s="19" t="s">
         <v>59</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="K26" s="1"/>
     </row>
@@ -3008,7 +3123,7 @@
         <v>80</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="I27" s="19" t="s">
         <v>59</v>
@@ -3025,19 +3140,19 @@
         <v>44</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E28" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="I28" s="21" t="s">
         <v>60</v>
@@ -3066,7 +3181,7 @@
         <v>84</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="I29" s="21" t="s">
         <v>60</v>
@@ -3074,7 +3189,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>100</v>
       </c>
@@ -3095,6 +3210,12 @@
       </c>
       <c r="G30" s="2" t="s">
         <v>70</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="I30" s="21" t="s">
+        <v>60</v>
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -3114,10 +3235,16 @@
         <v>58</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>93</v>
+        <v>289</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>94</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="I31" s="21" t="s">
+        <v>60</v>
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -3567,143 +3694,21 @@
     <hyperlink ref="I25" location="Product!A9" display="PASS" xr:uid="{CB189510-6D9D-42BA-B46E-BB1282D5B47C}"/>
     <hyperlink ref="I26" location="Product!A10" display="PASS" xr:uid="{5E5D8DD4-B664-46A5-8F03-DF29E136DB83}"/>
     <hyperlink ref="I27" location="Product!A11" display="PASS" xr:uid="{8750CEB0-74FE-4540-BA7D-252808363D70}"/>
-    <hyperlink ref="I29" location="Product!A13" display="FAIL" xr:uid="{CF15E949-6C74-4FF6-91B7-958EE84586CC}"/>
+    <hyperlink ref="I29" location="Product!A15" display="FAIL" xr:uid="{CF15E949-6C74-4FF6-91B7-958EE84586CC}"/>
     <hyperlink ref="I28" location="Product!A12" display="FAIL" xr:uid="{78281A62-6F2D-48E9-84A5-7E9FE2E1AB7E}"/>
+    <hyperlink ref="I30" location="Product!A17" display="FAIL" xr:uid="{4960BBA6-983B-45B4-8918-B103EF03CA3C}"/>
+    <hyperlink ref="I31" location="Product!A19" display="FAIL" xr:uid="{BE6D9797-1B1D-4AC9-9F6E-ED4D3594DD24}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7259E29-CB5E-4A5C-B0A7-CEF0D44896B8}">
-  <dimension ref="A2:J4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF09A374-A999-4B81-A430-C972CF611ADA}">
+  <dimension ref="A2:K20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.5" customWidth="1"/>
-    <col min="3" max="3" width="43.125" customWidth="1"/>
-    <col min="4" max="4" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.125" customWidth="1"/>
-    <col min="8" max="8" width="32.875" customWidth="1"/>
-    <col min="9" max="9" width="36.75" customWidth="1"/>
-    <col min="10" max="10" width="32.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E3" s="18">
-        <v>45727.839618055557</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E4" s="18">
-        <v>45727.854421296295</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>216</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF09A374-A999-4B81-A430-C972CF611ADA}">
-  <dimension ref="A2:K16"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13:J14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3732,7 +3737,7 @@
         <v>210</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>146</v>
@@ -3757,17 +3762,17 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24" t="s">
+      <c r="D3" s="33"/>
+      <c r="E3" s="33" t="s">
         <v>213</v>
       </c>
       <c r="F3" s="18">
@@ -3790,11 +3795,11 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="30"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
       <c r="F4" s="18">
         <v>45727.854421296295</v>
       </c>
@@ -3815,7 +3820,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="28" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -3841,18 +3846,18 @@
         <v>49</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="28" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
@@ -3871,12 +3876,12 @@
         <v>52</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
-        <v>232</v>
+      <c r="A7" s="28" t="s">
+        <v>226</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>65</v>
@@ -3901,12 +3906,12 @@
         <v>67</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A8" s="29" t="s">
-        <v>233</v>
+      <c r="A8" s="28" t="s">
+        <v>227</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>88</v>
@@ -3928,15 +3933,15 @@
         <v>59</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11" ht="132" x14ac:dyDescent="0.3">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="28" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -3953,7 +3958,7 @@
         <v>45728.794699074075</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H9" s="15" t="s">
         <v>59</v>
@@ -3962,11 +3967,11 @@
         <v>73</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="28" t="s">
         <v>29</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -3992,11 +3997,11 @@
         <v>51</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="28" t="s">
         <v>30</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -4022,21 +4027,21 @@
         <v>80</v>
       </c>
       <c r="J11" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="33" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>246</v>
-      </c>
       <c r="C12" s="2" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="33" t="s">
         <v>213</v>
       </c>
       <c r="F12" s="18">
@@ -4048,80 +4053,80 @@
       <c r="H12" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="I12" s="24" t="s">
-        <v>274</v>
+      <c r="I12" s="33" t="s">
+        <v>268</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="30"/>
-      <c r="B13" s="24"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="33"/>
       <c r="C13" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="D13" s="32" t="s">
-        <v>252</v>
-      </c>
-      <c r="E13" s="24"/>
+        <v>248</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="E13" s="33"/>
       <c r="F13" s="18">
         <v>45728.904421296298</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="H13" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24" t="s">
-        <v>275</v>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33" t="s">
+        <v>269</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="30"/>
-      <c r="B14" s="24"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="33"/>
       <c r="C14" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="D14" s="32" t="s">
-        <v>253</v>
-      </c>
-      <c r="E14" s="24"/>
+        <v>244</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="E14" s="33"/>
       <c r="F14" s="18">
         <v>45728.862754629627</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="H14" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
       <c r="K14" s="2" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="C15" s="25" t="s">
-        <v>241</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="24" t="s">
+      <c r="C15" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="D15" s="32"/>
+      <c r="E15" s="33" t="s">
         <v>213</v>
       </c>
       <c r="F15" s="18">
@@ -4134,21 +4139,21 @@
         <v>60</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="30"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="24"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="33"/>
       <c r="F16" s="18">
         <v>45728.850254629629</v>
       </c>
@@ -4159,28 +4164,150 @@
         <v>59</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>245</v>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A17" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="F17" s="18">
+        <v>45729.887060185189</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="31"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="E18" s="33"/>
+      <c r="F18" s="18">
+        <v>45729.898865740739</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="31" t="s">
+        <v>282</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="F19" s="18">
+        <v>45729.857199074075</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="31"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="E20" s="32"/>
+      <c r="F20" s="18">
+        <v>45729.907893518517</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="22">
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="B19:B20"/>
     <mergeCell ref="I12:I14"/>
     <mergeCell ref="J13:J14"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="E3:E4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E12:E14"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D3:D4"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="B12:B14"/>
-    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="E17:E18"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
@@ -4196,17 +4323,22 @@
     <hyperlink ref="A12" location="Testcase!A28" display="TC-PR-009" xr:uid="{EDB43B30-BA2A-4B28-A209-893EF6C03358}"/>
     <hyperlink ref="D13" location="Product_Link!A3" display="TRIGGER" xr:uid="{DCEFB688-03A7-423F-A176-9E29C01FDF3F}"/>
     <hyperlink ref="D14" location="Product_Link!A4" display="PROCEDURE" xr:uid="{00590F7A-1476-440E-AB91-8E05A7D10550}"/>
+    <hyperlink ref="A17" location="Testcase!A30" display="TC-PR-011" xr:uid="{B5122B69-F17C-452F-BE41-132A94C926DD}"/>
+    <hyperlink ref="D18" location="Product_Link!A5" display="TRIGGER" xr:uid="{D7484DD1-5DA3-45CD-9D37-8E301313AB3F}"/>
+    <hyperlink ref="A19" location="Testcase!A31" display="TC-PR-012" xr:uid="{7E957F92-B614-4B51-B5F2-457252554C58}"/>
+    <hyperlink ref="D20" location="Product_Link!A4" display="PROCEDURE" xr:uid="{404CE093-E4D1-40E8-B043-60B058EB7091}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA8DBD4-BFDB-4208-A158-376E89EA9DCF}">
-  <dimension ref="A2:G4"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4221,648 +4353,123 @@
     <col min="8" max="8" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
+    <row r="1" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="175.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
         <v>255</v>
       </c>
-      <c r="B2" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="C2" s="26" t="s">
+      <c r="B2" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="C2" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="2" t="s">
         <v>257</v>
       </c>
       <c r="E2" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="F2" s="25">
+        <v>45728</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="B3" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E3" s="27" t="s">
         <v>259</v>
       </c>
-      <c r="G2" s="26" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="175.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
-        <v>261</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>252</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>262</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>269</v>
-      </c>
-      <c r="F3" s="31">
-        <v>45728</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="F3" s="25">
+        <v>45729</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="247.5" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
-        <v>264</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>253</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>267</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="E4" s="33" t="s">
-        <v>265</v>
-      </c>
-      <c r="F4" s="31">
+        <v>276</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="F4" s="25">
         <v>45729</v>
       </c>
+      <c r="G4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="F5" s="25">
+        <v>45730</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D6" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A3" location="Product!A11" display="TC-PR-PT-001" xr:uid="{3E9BE82B-9431-478B-AE0F-90633985E859}"/>
-    <hyperlink ref="A4" location="Product!A11" display="TC-PR-PT-002" xr:uid="{0914FBBC-62D4-46FC-BCBC-6A3EB7B59F93}"/>
+    <hyperlink ref="A2" location="Product!A12" display="TC-PR-PT-001" xr:uid="{3E9BE82B-9431-478B-AE0F-90633985E859}"/>
+    <hyperlink ref="A3" location="Product!A12" display="TC-PR-PT-002" xr:uid="{0914FBBC-62D4-46FC-BCBC-6A3EB7B59F93}"/>
+    <hyperlink ref="A4" location="Product!A17" display="TC-PR-PT-003" xr:uid="{66937640-3D8A-4AEB-B079-4946EF0550B0}"/>
+    <hyperlink ref="A5" location="Product!A19" display="TC-PR-PT-004" xr:uid="{3C9E8EE7-B304-4C3C-8C86-F136E5858B8C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{451C4A51-9690-43BE-9F3A-73533E711DB8}">
-  <dimension ref="A2:J13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.5" customWidth="1"/>
-    <col min="3" max="3" width="43.125" customWidth="1"/>
-    <col min="4" max="4" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.125" customWidth="1"/>
-    <col min="8" max="8" width="32.875" customWidth="1"/>
-    <col min="9" max="9" width="36.75" customWidth="1"/>
-    <col min="10" max="10" width="32.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="66" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E3" s="18">
-        <v>45727.870196759257</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="66" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E4" s="18">
-        <v>45727.879166666666</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="66" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E5" s="18">
-        <v>45727.884097222224</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E6" s="18">
-        <v>45727.881423611114</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E7" s="18">
-        <v>45727.882337962961</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E8" s="18">
-        <v>45727.883425925924</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E9" s="18">
-        <v>45727.884097222224</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E10" s="18">
-        <v>45727.884097222224</v>
-      </c>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="D11" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E11" s="18">
-        <v>45728.884097222224</v>
-      </c>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E12" s="18">
-        <v>45729.884097222224</v>
-      </c>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E13" s="18">
-        <v>45730.884097222224</v>
-      </c>
-      <c r="I13" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{444E93D6-ED11-4590-A7D7-036BA4610650}">
-  <dimension ref="A2:J5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.5" customWidth="1"/>
-    <col min="3" max="3" width="43.125" customWidth="1"/>
-    <col min="4" max="4" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.125" customWidth="1"/>
-    <col min="8" max="8" width="32.875" customWidth="1"/>
-    <col min="9" max="9" width="36.75" customWidth="1"/>
-    <col min="10" max="10" width="32.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E3" s="18">
-        <v>45727.839618055557</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E4" s="18">
-        <v>45727.854421296295</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F50FCE08-A9A6-4483-84DE-98EAA6AAEB1B}">
-  <dimension ref="A2:J5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.5" customWidth="1"/>
-    <col min="3" max="3" width="43.125" customWidth="1"/>
-    <col min="4" max="4" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.125" customWidth="1"/>
-    <col min="8" max="8" width="32.875" customWidth="1"/>
-    <col min="9" max="9" width="36.75" customWidth="1"/>
-    <col min="10" max="10" width="32.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E3" s="18">
-        <v>45727.839618055557</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E4" s="18">
-        <v>45727.854421296295</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/TestCase/TestCaseTTH.xlsx
+++ b/TestCase/TestCaseTTH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piseumo\Desktop\Sodam\TestCase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414BED0D-6982-4F55-B322-9BFD562F7161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11ABBF40-8A27-47D9-B052-E6C3CE402E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A7ACD227-042E-496B-990A-C02EFE6A0BF7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7ACD227-042E-496B-990A-C02EFE6A0BF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Testcase" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="327">
   <si>
     <t>입력값</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -414,18 +414,6 @@
   </si>
   <si>
     <t>자동 삭제되고, 조회 시 결과 없음</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>CALL sp_delete_expired_products(); SELECT * FROM Product WHERE expire_date &lt; NOW();</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>만료 상품이 모두 삭제되어야 한다.</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>이벤트 스케줄러 동작</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1007,12 +995,6 @@
   </si>
   <si>
     <t>PROCEDURE</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-INSERT INTO Discounts (rate, reason, start, end, price_id)
-VALUES (10, '은우 할인', NOW(), DATE_ADD(NOW(), INTERVAL 7 DAY), 2000003);</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1651,51 +1633,2324 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">
-DELIMITER //
+    <t>insert into product (category_id, name, main_image, detail_image, expire_date) values(1,'1분 더미 테스트 상품','aaa','aaa', NOW() + INTERVAL 2 MINUTE); / SELECT * FROM product
+WHERE DATE(expire_date) = '2025-03-14'
+ORDER BY expire_date DESC
+LIMIT 1;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT INTO Product (name, expire_date) VALUES ('테스트상품', DATE_SUB(NOW(), INTERVAL 1 DAY));</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>유통기한 만료 상품이 스케줄러에 의해 삭제되어야 한다.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CALL DeleteExpiredProducts(); / select * from product;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-PR-013</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>유통기한 만료 상품이 스케줄러에 의해 삭제</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>유통기한 만료 상품이 이벤트 스케줄러 동작에 의해 삭제되어야 한다.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>유통기한이 지난 상품이 프로시저에 의해 카테고리별 설정 유통기한에 맞게 삭제되는지 확인</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>유통기한 지난 상품이 해당 상품의 유통기한에 맞게 삭제되고, 조회 시 결과 없음</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제 되지 않고 조회 됨</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-PR-PT-005</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DELIMITER //
 CREATE PROCEDURE DeleteExpiredProducts()
 BEGIN
     DELETE FROM Product
     WHERE expire_date IS NOT NULL
     AND (
-        -- 델리/치킨/초밥 (category_id = 1): 유통기한 1일 남으면 삭제
-        (category_id = 1 AND expire_date &lt; DATE_SUB(CURDATE(), INTERVAL 1 DAY))
-        -- 라면/즉석식품/통조림 (category_id = 2): 유통기한 3개월(90일) 남으면 삭제
-        OR (category_id = 2 AND expire_date &lt; DATE_SUB(CURDATE(), INTERVAL 90 DAY))
-        -- 베이커리/잼 (category_id = 3): 유통기한 1주일(7일) 남으면 삭제
-        OR (category_id = 3 AND expire_date &lt; DATE_SUB(CURDATE(), INTERVAL 7 DAY))
-        -- 냉장/냉동/밀키트 (category_id = 4): 유통기한 6개월(180일) 남으면 삭제
-        OR (category_id = 4 AND expire_date &lt; DATE_SUB(CURDATE(), INTERVAL 180 DAY))
-        -- 과자/시리얼 (category_id = 5): 유통기한 1개월(30일) 남으면 삭제
-        OR (category_id = 5 AND expire_date &lt; DATE_SUB(CURDATE(), INTERVAL 30 DAY))
-        -- 커피/차 (category_id = 6): 유통기한 3개월(90일) 남으면 삭제
-        OR (category_id = 6 AND expire_date &lt; DATE_SUB(CURDATE(), INTERVAL 90 DAY))
-        -- 생수/음료 (category_id = 7): 유통기한 3개월(90일) 남으면 삭제
-        OR (category_id = 7 AND expire_date &lt; DATE_SUB(CURDATE(), INTERVAL 90 DAY))
-        -- 과일 (category_id = 8): 유통기한 1주일(7일) 남으면 삭제
-        OR (category_id = 8 AND expire_date &lt; DATE_SUB(CURDATE(), INTERVAL 7 DAY))
-        -- 쌀/잡곡 (category_id = 9): 유통기한 6개월(180일) 남으면 삭제
-        OR (category_id = 9  AND expire_date &lt; DATE_SUB(CURDATE(), INTERVAL 180 DAY))
-        -- 채소 (category_id = 10): 유통기한 2주일(14일) 남으면 삭제
-        OR (category_id = 10  AND expire_date &lt; DATE_SUB(CURDATE(), INTERVAL 14 DAY))
-        -- 견과 (category_id = 11): 유통기한 3개월(90일) 남으면 삭제
-        OR (category_id = 11  AND expire_date &lt; DATE_SUB(CURDATE(), INTERVAL 90 DAY))
-        -- 수산물/건어물 (category_id = 12): 유통기한 1주일(7일) 남으면 삭제
-        OR (category_id = 12  AND expire_date &lt; DATE_SUB(CURDATE(), INTERVAL 7 DAY))
-        -- 정육/계란 (category_id = 13): 유통기한 1주일(7일) 남으면 삭제
-        OR (category_id = 13  AND expire_date &lt; DATE_SUB(CURDATE(), INTERVAL 7 DAY))
-        -- 장류/양념/제빵 (category_id = 14): 유통기한 3개월(90일) 남으면 삭제
-        OR (category_id = 14  AND expire_date &lt; DATE_SUB(CURDATE(), INTERVAL 90 DAY))
-        -- 우유/유제품 (category_id = 15): 유통기한 1주일(7일) 남으면 삭제
-        OR (category_id = 15  AND expire_date &lt; DATE_SUB(CURDATE(), INTERVAL 7 DAY))
-		-- 두부/김치/반찬 (category_id = 15): 유통기한 1주일(7일) 남으면 삭제
-        OR (category_id = 15  AND expire_date &lt; DATE_SUB(CURDATE(), INTERVAL 7 DAY))
+        -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>델리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>치킨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>초밥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (category_id = 1): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유통기한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>남으면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>삭제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기존보다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하루</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>빠르게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">)
+        (category_id = 1 AND expire_date &lt; NOW() + INTERVAL 1 DAY)
+        -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>라면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>즉석식품</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>통조림</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (category_id = 2): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유통기한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(90</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>남으면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>삭제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+        OR (category_id = 2 AND expire_date &lt; NOW() + INTERVAL 90 DAY)
+        -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>베이커리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>잼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (category_id = 3): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유통기한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>남으면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>삭제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+        OR (category_id = 3 AND expire_date &lt; NOW() + INTERVAL 7 DAY)
+        -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>냉장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>냉동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>밀키트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (category_id = 4): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유통기한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(180</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>남으면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>삭제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+        OR (category_id = 4 AND expire_date &lt; NOW() + INTERVAL 180 DAY)
+        -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>과자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시리얼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (category_id = 5): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유통기한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>남으면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>삭제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+        OR (category_id = 5 AND expire_date &lt; NOW() + INTERVAL 30 DAY)
+        -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>커피</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>차</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (category_id = 6): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유통기한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(90</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>남으면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>삭제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+        OR (category_id = 6 AND expire_date &lt; NOW() + INTERVAL 90 DAY)
+        -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>생수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>음료</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (category_id = 7): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유통기한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(90</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>남으면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>삭제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+        OR (category_id = 7 AND expire_date &lt; NOW() + INTERVAL 90 DAY)
+        -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>과일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (category_id = 8): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유통기한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>남으면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>삭제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+        OR (category_id = 8 AND expire_date &lt; NOW() + INTERVAL 7 DAY)
+        -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>쌀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>잡곡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (category_id = 9): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유통기한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(180</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>남으면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>삭제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+        OR (category_id = 9 AND expire_date &lt; NOW() + INTERVAL 180 DAY)
+        -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>채소</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (category_id = 10): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유통기한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>남으면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>삭제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+        OR (category_id = 10 AND expire_date &lt; NOW() + INTERVAL 14 DAY)
+        -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>견과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (category_id = 11): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유통기한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(90</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>남으면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>삭제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+        OR (category_id = 11 AND expire_date &lt; NOW() + INTERVAL 90 DAY)
+        -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수산물</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>건어물</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (category_id = 12): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유통기한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>남으면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>삭제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+        OR (category_id = 12 AND expire_date &lt; NOW() + INTERVAL 7 DAY)
+        -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정육</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>계란</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (category_id = 13): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유통기한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>남으면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>삭제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+        OR (category_id = 13 AND expire_date &lt; NOW() + INTERVAL 7 DAY)
+        -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>장류</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>양념</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제빵</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (category_id = 14): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유통기한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(90</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>남으면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>삭제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+        OR (category_id = 14 AND expire_date &lt; NOW() + INTERVAL 90 DAY)
+        -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>우유</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유제품</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (category_id = 15): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유통기한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>남으면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>삭제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+        OR (category_id = 15 AND expire_date &lt; NOW() + INTERVAL 7 DAY)
+        -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>두부</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>김치</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>반찬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (category_id = 16): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유통기한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>남으면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>삭제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+        OR (category_id = 16 AND expire_date &lt; NOW() + INTERVAL 7 DAY)
     );
 END;
 //
-DELIMITER ;
-SET GLOBAL event_scheduler = ON;
-DELIMITER //
+DELIMITER ;</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELIMITER //
 CREATE EVENT AutoDeleteExpiredProducts
 ON SCHEDULE EVERY 1 DAY
 STARTS TIMESTAMP(CURDATE(), '00:00:00')
@@ -1705,14 +3960,1627 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>insert into product (category_id, name, main_image, detail_image, expire_date) values(1,'1분 더미 테스트 상품','aaa','aaa', NOW() + INTERVAL 2 MINUTE); / SELECT * FROM product
-WHERE DATE(expire_date) = '2025-03-14'
-ORDER BY expire_date DESC
-LIMIT 1;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>INSERT INTO Product (name, expire_date) VALUES ('테스트상품', DATE_SUB(NOW(), INTERVAL 1 DAY));</t>
+    <t>AutoDeleteExpiredProducts</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVENT</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-PR-014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+INSERT INTO Discounts (rate, reason, start, end, price_id)
+VALUES (10, '특가 할인', NOW(), DATE_ADD(NOW(), INTERVAL 7 DAY), 2000003);</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>보완 필요</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-PR-015</t>
+  </si>
+  <si>
+    <t>TC-PR-015</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>할인 기간이 종료된 상품은 할인 이전 가격으로 변경되어야 한다.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>할인 기간이 종료되면 이벤트 스케줄러에 의해 가격이 원래대로 변경되어야 한다.</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>할인 기간이 종료된 상품은 원래 가격으로 상품 가격 테이블 로그가 생기는지 확인</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>RestorePrice</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-PR-PT-006</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DELIMITER //
+CREATE PROCEDURE RestorePrice()
+BEGIN
+    -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>할인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>종료된</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가격</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>복원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+    INSERT INTO Product_Price (product_id, current_price, type, delta, reason, final_price, date_time)
+    SELECT 
+        pp.product_id, 
+        pp.final_price, -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>현재</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가격</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>할인된</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가격</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 900</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">)
+        'Increase', -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>변동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유형</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가격</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상승</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">)
+        (pp.final_price / (1 - d.rate / 100)) - pp.final_price, -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가격</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>차이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (1000 - 900 = 100)
+        '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>할인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>종료</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">', -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>변동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사유</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+        pp.final_price / (1 - d.rate / 100), -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>최종</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가격</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>원래</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가격</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 1000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">)
+        NOW() -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>현재</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+    FROM Product_Price pp
+    JOIN Discounts d ON pp.price_id = d.price_id
+    WHERE d.end &lt;= CURDATE(); -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>할인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기간이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>끝난</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경우</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+END;
+//
+DELIMITER ;</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SET GLOBAL event_scheduler = ON;
+DELIMITER //
+CREATE EVENT AutoRestorePrices
+ON SCHEDULE EVERY 1 DAY
+STARTS TIMESTAMP(CURDATE(), '00:00:00')
+DO CALL RestorePrice();
+//
+DELIMITER ;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>AutoRestorePrices</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-PR-PT-007</t>
+  </si>
+  <si>
+    <t>INSERT INTO Product_Price (product_id, current_price, type, delta, reason, final_price, date_time)
+VALUES 
+(1, 900, 'Decrease', 100, '10% 할인 적용', 900, '2025-03-10 00:00:00'),
+(2, 800, 'Decrease', 200, '20% 할인 적용', 800, '2025-03-11 00:00:00');
+INSERT INTO Discounts (rate, reason, start, end, price_id)
+VALUES 
+(10, '10% 할인', '2025-03-05', '2025-03-15', 1),
+(20, '20% 할인', '2025-03-06', '2025-03-15', 2);
+select * from product_price;
+select * from discounts;
+CALL RestorePrice();</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SET GLOBAL event_scheduler = ON; CALL RestorePrice();
+SELECT EVENT_NAME, EVENT_DEFINITION, LAST_EXECUTED FROM INFORMATION_SCHEMA.EVENTS WHERE EVENT_NAME = 'AutoRestorePrices';</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.016 sec</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>종료된 상품의 데이터 값이 이전 상품 가격으로 상품 가격 테이블 로그에 기록</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 가격 테이블 로그에 매일 정각에 자동으로 변경된 가격 로그가 입력</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-PR-PT-008</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>after_product_insert</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-PR-016</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DELIMITER //
+CREATE TRIGGER after_product_insert
+AFTER INSERT ON Product
+FOR EACH ROW
+BEGIN
+    DECLARE random_quantity INT;
+    DECLARE random_price INT;
+    DECLARE request_id BIGINT;
+    -- 1000 ~ 5000 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사이의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 500 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>단위</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>랜덤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>값</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>생성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+    SET random_quantity = (FLOOR(RAND() * 9) * 500 + 1000);
+    -- 1000 ~ 100000 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사이의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 1000 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>단위</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>랜덤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>값</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>생성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+    SET random_price = (FLOOR(RAND() * 100) * 1000 + 1000);
+    -- 1. `Warehouse_Inventory`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기본</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>재고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+    INSERT INTO Warehouse_Inventory (warehouse_id, product_id, quantity, last_updated)
+    VALUES (1, NEW.product_id, random_quantity, NOW());
+    -- 2. `Product_Price`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>초기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가격</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+    INSERT INTO Product_Price (product_id, current_price, type, delta, reason, final_price, date_time)
+    VALUES (NEW.product_id, NULL, NULL, NULL, NULL, random_price, NOW());
+    -- 3. `Warehouse_Orders_Requests`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>요청</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+    INSERT INTO Warehouse_Orders_Requests (warehouse_id, type, source, status, created_at, updated_at)
+    VALUES (1, '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>', '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공급처발주</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>', '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>완료</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>', NOW(), NOW());
+    -- `Warehouse_Orders_Requests`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>방금</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추가된</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> `request_id` </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가져오기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+    SELECT MAX(request_id) INTO request_id FROM Warehouse_Orders_Requests;
+    -- 4. `Warehouse_Orders_Details`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상품의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>요청</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상세</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+    INSERT INTO Warehouse_Orders_Details (request_id, product_id, quantity, created_at)
+    VALUES (request_id, NEW.product_id, random_quantity, NOW());
+    -- 5. `Warehouse_Orders_Log`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>완료</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로그</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+    INSERT INTO Warehouse_Orders_Log (request_id, status, changed_at)
+    VALUES (request_id, '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>완료</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>', NOW());
+END;
+//
+DELIMITER ;</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT INTO Product (category_id, name, main_image, detail_image, expire_date, capacity_value, capacity_unit)
+VALUES (1, '새로운 상품', 'image1.jpg', 'image2.jpg', NOW() + INTERVAL 30 DAY, 500, 'ml');
+SELECT * FROM Product ORDER BY product_id DESC;
+SELECT * FROM Warehouse_Inventory WHERE product_id = (SELECT MAX(product_id) FROM Product);
+SELECT * FROM Product_Price WHERE product_id = (SELECT MAX(product_id) FROM Product);
+SELECT * FROM Warehouse_Orders_Requests ORDER BY request_id DESC LIMIT 5;
+SELECT * FROM Warehouse_Orders_Details WHERE product_id = (SELECT MAX(product_id) FROM Product);
+SELECT * FROM Warehouse_Orders_Log ORDER BY log_id DESC LIMIT 5;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>새로운 상품이 등록되면, 관련 테이블(Product Price,Warehouse_Orders_Details,Warehouse_Orders_Requests,Warehouse_Orders_Log,Warehouse_Inventory)에 데이터 값이 동시에 등록</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>관련 테이블 모두 데이터 값 정상으로 등록되야함</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 테이블 정상 등록</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.032 sec</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 테이블의 데이터가 정상 등록</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1723,7 +5591,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;년&quot;\ m&quot;월&quot;\ d&quot;일&quot;;@"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1872,6 +5740,13 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="17">
@@ -2029,7 +5904,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2134,9 +6009,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -2469,11 +6341,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D89EE23-B240-4F75-A27D-E1B6020D8554}">
-  <dimension ref="A1:K58"/>
+  <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2592,16 +6464,16 @@
         <v>36</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H8" s="2"/>
       <c r="J8" s="1"/>
@@ -2616,16 +6488,16 @@
         <v>36</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H9" s="2"/>
       <c r="J9" s="1"/>
@@ -2633,23 +6505,23 @@
     </row>
     <row r="10" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H10" s="2"/>
       <c r="J10" s="1"/>
@@ -2657,23 +6529,23 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H11" s="2"/>
       <c r="J11" s="1"/>
@@ -2681,23 +6553,23 @@
     </row>
     <row r="12" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H12" s="2"/>
       <c r="J12" s="1"/>
@@ -2705,23 +6577,23 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H13" s="2"/>
       <c r="J13" s="1"/>
@@ -2729,23 +6601,23 @@
     </row>
     <row r="14" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H14" s="2"/>
       <c r="J14" s="1"/>
@@ -2753,23 +6625,23 @@
     </row>
     <row r="15" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E15" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H15" s="2"/>
       <c r="J15" s="1"/>
@@ -2777,23 +6649,23 @@
     </row>
     <row r="16" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H16" s="2"/>
       <c r="J16" s="1"/>
@@ -2801,23 +6673,23 @@
     </row>
     <row r="17" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H17" s="2"/>
       <c r="J17" s="1"/>
@@ -2825,23 +6697,23 @@
     </row>
     <row r="18" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E18" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H18" s="2"/>
       <c r="J18" s="1"/>
@@ -2849,7 +6721,7 @@
     </row>
     <row r="19" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>8</v>
@@ -2858,16 +6730,16 @@
         <v>40</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H19" s="1"/>
       <c r="J19" s="1"/>
@@ -2896,13 +6768,13 @@
         <v>50</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="I20" s="14" t="s">
         <v>60</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="K20" s="1"/>
     </row>
@@ -2929,13 +6801,13 @@
         <v>49</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="I21" s="19" t="s">
         <v>59</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="K21" s="1"/>
     </row>
@@ -2956,19 +6828,19 @@
         <v>58</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>52</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="I22" s="19" t="s">
         <v>59</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="K22" s="1"/>
     </row>
@@ -2995,13 +6867,13 @@
         <v>67</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="I23" s="19" t="s">
         <v>59</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="K23" s="1"/>
     </row>
@@ -3028,13 +6900,13 @@
         <v>68</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="I24" s="19" t="s">
         <v>59</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="K24" s="1"/>
     </row>
@@ -3061,13 +6933,13 @@
         <v>73</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="I25" s="19" t="s">
         <v>59</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="K25" s="1"/>
     </row>
@@ -3092,13 +6964,13 @@
         <v>51</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I26" s="19" t="s">
         <v>59</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="K26" s="1"/>
     </row>
@@ -3123,46 +6995,50 @@
         <v>80</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="I27" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="J27" s="1"/>
+      <c r="J27" s="1" t="s">
+        <v>216</v>
+      </c>
       <c r="K27" s="1"/>
     </row>
     <row r="28" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E28" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="I28" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="J28" s="1"/>
+      <c r="J28" s="2" t="s">
+        <v>216</v>
+      </c>
       <c r="K28" s="1"/>
     </row>
     <row r="29" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="2" t="s">
@@ -3181,17 +7057,19 @@
         <v>84</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="I29" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="J29" s="1"/>
+      <c r="J29" s="2" t="s">
+        <v>217</v>
+      </c>
       <c r="K29" s="1"/>
     </row>
     <row r="30" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>9</v>
@@ -3212,17 +7090,19 @@
         <v>70</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="I30" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="J30" s="1"/>
+      <c r="J30" s="1" t="s">
+        <v>216</v>
+      </c>
       <c r="K30" s="1"/>
     </row>
     <row r="31" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="2" t="s">
@@ -3231,428 +7111,592 @@
       <c r="D31" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E31" s="12" t="s">
-        <v>58</v>
+      <c r="E31" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>94</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="I31" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="J31" s="1"/>
+      <c r="J31" s="2" t="s">
+        <v>216</v>
+      </c>
       <c r="K31" s="1"/>
     </row>
     <row r="32" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>97</v>
+        <v>289</v>
       </c>
       <c r="E32" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>95</v>
+        <v>286</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>96</v>
+        <v>285</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="I32" s="19" t="s">
+        <v>59</v>
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:11" ht="66" x14ac:dyDescent="0.3">
-      <c r="A33" s="8" t="s">
-        <v>104</v>
+    <row r="33" spans="1:11" ht="330" x14ac:dyDescent="0.3">
+      <c r="A33" s="10" t="s">
+        <v>298</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="2" t="s">
-        <v>105</v>
+        <v>44</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>106</v>
+        <v>305</v>
       </c>
       <c r="E33" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>107</v>
+        <v>312</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="J33" s="1"/>
+        <v>303</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="I33" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>314</v>
+      </c>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:11" ht="66" x14ac:dyDescent="0.3">
-      <c r="A34" s="8" t="s">
-        <v>103</v>
+    <row r="34" spans="1:11" ht="99" x14ac:dyDescent="0.3">
+      <c r="A34" s="10" t="s">
+        <v>302</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="2" t="s">
-        <v>105</v>
+        <v>44</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F34" s="17" t="s">
-        <v>110</v>
+        <v>304</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>313</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>115</v>
+        <v>316</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="I34" s="19" t="s">
+        <v>59</v>
       </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A35" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>10</v>
-      </c>
+    <row r="35" spans="1:11" ht="330" x14ac:dyDescent="0.3">
+      <c r="A35" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="B35" s="1"/>
       <c r="C35" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>118</v>
+        <v>322</v>
       </c>
       <c r="E35" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F35" s="17" t="s">
-        <v>111</v>
+      <c r="F35" s="2" t="s">
+        <v>321</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A36" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F36" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A37" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F37" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A38" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F38" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A39" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F39" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A40" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E40" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F40" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>137</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="I35" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="7"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="7"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="7"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="7"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="7"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
     </row>
     <row r="41" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="B41" s="1"/>
       <c r="C41" s="2" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="E41" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F41" s="17" t="s">
-        <v>139</v>
+      <c r="F41" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+    </row>
+    <row r="42" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="B42" s="1"/>
       <c r="C42" s="2" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>141</v>
+        <v>106</v>
       </c>
       <c r="E42" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F42" s="17" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="9" t="s">
-        <v>21</v>
+        <v>112</v>
+      </c>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+    </row>
+    <row r="43" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A43" s="8" t="s">
+        <v>124</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="9"/>
-      <c r="B44" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F43" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A44" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="C44" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="9"/>
-      <c r="B45" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F44" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A45" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="C45" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="9"/>
-      <c r="B46" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F45" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A46" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="C46" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="9"/>
-      <c r="B47" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F46" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A47" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="C47" s="2" t="s">
-        <v>78</v>
+        <v>33</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F47" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A48" s="6" t="s">
-        <v>22</v>
+      <c r="A48" s="8" t="s">
+        <v>129</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>149</v>
+        <v>33</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="E48" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F48" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="A49" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F49" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A50" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F50" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="9"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="9"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="9"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="9"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A56" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F56" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A57" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F57" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="G57" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A49" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="B49" s="1" t="s">
+    <row r="58" spans="1:7" ht="132" x14ac:dyDescent="0.3">
+      <c r="A58" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D49" s="1" t="s">
+      <c r="C58" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E49" s="12" t="s">
+      <c r="E58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F58" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A59" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E59" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F49" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="132" x14ac:dyDescent="0.3">
-      <c r="A50" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E50" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F50" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="G50" s="2" t="s">
+      <c r="F59" s="17" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A51" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C51" s="2" t="s">
+      <c r="G59" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E51" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F51" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="1"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="1"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="1"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="1"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="1"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="1"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="1"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="1"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="1"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="1"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="1"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="1"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="1"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A7:N7" xr:uid="{7D89EE23-B240-4F75-A27D-E1B6020D8554}"/>
@@ -3698,6 +7742,10 @@
     <hyperlink ref="I28" location="Product!A12" display="FAIL" xr:uid="{78281A62-6F2D-48E9-84A5-7E9FE2E1AB7E}"/>
     <hyperlink ref="I30" location="Product!A17" display="FAIL" xr:uid="{4960BBA6-983B-45B4-8918-B103EF03CA3C}"/>
     <hyperlink ref="I31" location="Product!A19" display="FAIL" xr:uid="{BE6D9797-1B1D-4AC9-9F6E-ED4D3594DD24}"/>
+    <hyperlink ref="I32" location="Product!A21" display="PASS" xr:uid="{FA36EBE5-5ED2-4EC8-9388-47BF97541065}"/>
+    <hyperlink ref="I33" location="Product!A22" display="PASS" xr:uid="{B580A74E-6F2B-451D-92C4-82482DB0774B}"/>
+    <hyperlink ref="I34" location="Product!A23" display="PASS" xr:uid="{A836F2BC-B709-4D03-A5EF-AE385A03F7DC}"/>
+    <hyperlink ref="I35" location="Product!A24" display="PASS" xr:uid="{E03FAE3A-9FF7-4B84-9D88-B772153E221E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3705,10 +7753,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF09A374-A999-4B81-A430-C972CF611ADA}">
-  <dimension ref="A2:K20"/>
+  <dimension ref="A2:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:A20"/>
+    <sheetView topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3728,37 +7776,37 @@
   <sheetData>
     <row r="2" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>148</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>62</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="33" x14ac:dyDescent="0.3">
@@ -3773,13 +7821,13 @@
       </c>
       <c r="D3" s="33"/>
       <c r="E3" s="33" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F3" s="18">
         <v>45727.839618055557</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H3" s="14" t="s">
         <v>60</v>
@@ -3788,10 +7836,10 @@
         <v>50</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="K3" s="17" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
@@ -3804,7 +7852,7 @@
         <v>45727.854421296295</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H4" s="15" t="s">
         <v>59</v>
@@ -3813,10 +7861,10 @@
         <v>50</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="K4" s="17" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
@@ -3831,13 +7879,13 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F5" s="18">
         <v>45727.906504629631</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H5" s="15" t="s">
         <v>59</v>
@@ -3846,7 +7894,7 @@
         <v>49</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="33" x14ac:dyDescent="0.3">
@@ -3857,17 +7905,17 @@
         <v>87</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F6" s="18">
         <v>45727.901932870373</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H6" s="15" t="s">
         <v>59</v>
@@ -3876,12 +7924,12 @@
         <v>52</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>65</v>
@@ -3891,13 +7939,13 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F7" s="18">
         <v>45727.907893518517</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H7" s="15" t="s">
         <v>59</v>
@@ -3906,12 +7954,12 @@
         <v>67</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>88</v>
@@ -3921,22 +7969,22 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F8" s="18">
         <v>45727.910671296297</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H8" s="15" t="s">
         <v>59</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="K8" s="2"/>
     </row>
@@ -3952,13 +8000,13 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F9" s="18">
         <v>45728.794699074075</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H9" s="15" t="s">
         <v>59</v>
@@ -3967,7 +8015,7 @@
         <v>73</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="115.5" x14ac:dyDescent="0.3">
@@ -3982,13 +8030,13 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F10" s="18">
         <v>45728.819004629629</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H10" s="15" t="s">
         <v>59</v>
@@ -3997,7 +8045,7 @@
         <v>51</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="33" x14ac:dyDescent="0.3">
@@ -4012,13 +8060,13 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F11" s="18">
         <v>45728.821087962962</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H11" s="15" t="s">
         <v>59</v>
@@ -4027,84 +8075,84 @@
         <v>80</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="34" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B12" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>243</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="33" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F12" s="18">
         <v>45729.850254629629</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H12" s="14" t="s">
         <v>60</v>
       </c>
       <c r="I12" s="33" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A13" s="34"/>
       <c r="B13" s="33"/>
       <c r="C13" s="2" t="s">
-        <v>248</v>
+        <v>299</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E13" s="33"/>
       <c r="F13" s="18">
         <v>45728.904421296298</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="H13" s="14" t="s">
         <v>60</v>
       </c>
       <c r="I13" s="33"/>
       <c r="J13" s="33" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="34"/>
       <c r="B14" s="33"/>
       <c r="C14" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D14" s="26" t="s">
         <v>244</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>247</v>
       </c>
       <c r="E14" s="33"/>
       <c r="F14" s="18">
         <v>45728.862754629627</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="H14" s="15" t="s">
         <v>59</v>
@@ -4112,40 +8160,40 @@
       <c r="I14" s="33"/>
       <c r="J14" s="33"/>
       <c r="K14" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A15" s="34" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B15" s="33" t="s">
         <v>81</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D15" s="32"/>
       <c r="E15" s="33" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F15" s="18">
         <v>45728.844004629631</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H15" s="14" t="s">
         <v>60</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
@@ -4158,21 +8206,21 @@
         <v>45728.850254629629</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H16" s="15" t="s">
         <v>59</v>
       </c>
       <c r="I16" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A17" s="31" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B17" s="33" t="s">
         <v>91</v>
@@ -4181,25 +8229,25 @@
         <v>69</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F17" s="18">
         <v>45729.887060185189</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H17" s="14" t="s">
         <v>60</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -4207,102 +8255,224 @@
       <c r="B18" s="33"/>
       <c r="C18" s="33"/>
       <c r="D18" s="26" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E18" s="33"/>
       <c r="F18" s="18">
         <v>45729.898865740739</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H18" s="15" t="s">
         <v>59</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A19" s="31" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="C19" s="35" t="s">
+        <v>290</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>93</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F19" s="18">
-        <v>45729.857199074075</v>
+        <v>45730.857199074075</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H19" s="14" t="s">
         <v>60</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>94</v>
+        <v>292</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A20" s="31"/>
       <c r="B20" s="33"/>
       <c r="C20" s="2" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E20" s="32"/>
       <c r="F20" s="18">
-        <v>45729.907893518517</v>
+        <v>45730.907893518517</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H20" s="15" t="s">
         <v>59</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>94</v>
+        <v>291</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>94</v>
+        <v>291</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="E21" t="s">
+        <v>210</v>
+      </c>
+      <c r="F21" s="18">
+        <v>45731.473171296297</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="330" x14ac:dyDescent="0.3">
+      <c r="A22" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="E22" t="s">
+        <v>210</v>
+      </c>
+      <c r="F22" s="18">
+        <v>45731.555810185186</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="99" x14ac:dyDescent="0.3">
+      <c r="A23" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="E23" t="s">
+        <v>210</v>
+      </c>
+      <c r="F23" s="18">
+        <v>45731.557893518519</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="346.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="20" t="s">
+        <v>319</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="E24" t="s">
+        <v>210</v>
+      </c>
+      <c r="F24" s="18">
+        <v>45731.572476851848</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>326</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="I12:I14"/>
     <mergeCell ref="J13:J14"/>
     <mergeCell ref="E15:E16"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="C15:C16"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:B14"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="B17:B18"/>
@@ -4327,6 +8497,14 @@
     <hyperlink ref="D18" location="Product_Link!A5" display="TRIGGER" xr:uid="{D7484DD1-5DA3-45CD-9D37-8E301313AB3F}"/>
     <hyperlink ref="A19" location="Testcase!A31" display="TC-PR-012" xr:uid="{7E957F92-B614-4B51-B5F2-457252554C58}"/>
     <hyperlink ref="D20" location="Product_Link!A4" display="PROCEDURE" xr:uid="{404CE093-E4D1-40E8-B043-60B058EB7091}"/>
+    <hyperlink ref="A21" location="Testcase!A33" display="TC-PR-013" xr:uid="{96F22575-9AAB-4BC9-A623-3FDF9CFF3E44}"/>
+    <hyperlink ref="D21" location="Product_Link!A6" display="PROCEDURE" xr:uid="{0BF75D6C-728A-455D-9D15-D6E458D66580}"/>
+    <hyperlink ref="A22" location="Testcase!A33" display="TC-PR-014" xr:uid="{86979FED-1AA3-4A04-B2BF-2BAD5AB19CEA}"/>
+    <hyperlink ref="A23" location="Testcase!A34" display="TC-PR-015" xr:uid="{2A869D9D-A7A0-4C25-9956-22073D314020}"/>
+    <hyperlink ref="D22" location="Product_Link!A7" display="PROCEDURE" xr:uid="{B8E223E3-0021-410D-BF02-94858BC1493E}"/>
+    <hyperlink ref="D23" location="Product_Link!A8" display="EVENT" xr:uid="{DE1E8CCD-AC02-4706-A1E0-BCF6391B1668}"/>
+    <hyperlink ref="A24" location="Testcase!A35" display="TC-PR-016" xr:uid="{1C6D9F98-9DB8-4201-B25E-269CC3F066B6}"/>
+    <hyperlink ref="D24" location="Product_Link!A9" display="TRIGGER" xr:uid="{E0D3F259-B1F7-43D2-9EB4-23BF5AD93376}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4334,11 +8512,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA8DBD4-BFDB-4208-A158-376E89EA9DCF}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4355,112 +8533,240 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1" s="22" t="s">
         <v>249</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>260</v>
-      </c>
-      <c r="C1" s="22" t="s">
+      <c r="G1" s="22" t="s">
         <v>250</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>251</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>252</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="175.5" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F2" s="25">
         <v>45728</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>261</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>262</v>
-      </c>
       <c r="E3" s="27" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F3" s="25">
         <v>45729</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="247.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="225" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>277</v>
+        <v>275</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>273</v>
       </c>
       <c r="F4" s="25">
         <v>45729</v>
       </c>
-      <c r="G4" t="s">
-        <v>280</v>
+      <c r="G4" s="2" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>287</v>
+        <v>290</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>294</v>
       </c>
       <c r="F5" s="25">
         <v>45730</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D6" s="2"/>
+    <row r="6" spans="1:7" ht="135" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>296</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>295</v>
+      </c>
+      <c r="F6" s="25">
+        <v>45731</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="342" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>308</v>
+      </c>
+      <c r="F7" s="25">
+        <v>45731</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="165" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>310</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="F8" s="25">
+        <v>45731</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>318</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>320</v>
+      </c>
+      <c r="F9" s="25">
+        <v>45731</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E10" s="27"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E11" s="27"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E12" s="27"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E13" s="27"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E14" s="27"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E15" s="27"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E16" s="27"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E17" s="27"/>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E18" s="27"/>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E19" s="27"/>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E20" s="27"/>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E21" s="27"/>
+    </row>
+    <row r="22" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E22" s="27"/>
+    </row>
+    <row r="23" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E23" s="27"/>
+    </row>
+    <row r="24" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E24" s="27"/>
+    </row>
+    <row r="25" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E25" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -4469,6 +8775,10 @@
     <hyperlink ref="A3" location="Product!A12" display="TC-PR-PT-002" xr:uid="{0914FBBC-62D4-46FC-BCBC-6A3EB7B59F93}"/>
     <hyperlink ref="A4" location="Product!A17" display="TC-PR-PT-003" xr:uid="{66937640-3D8A-4AEB-B079-4946EF0550B0}"/>
     <hyperlink ref="A5" location="Product!A19" display="TC-PR-PT-004" xr:uid="{3C9E8EE7-B304-4C3C-8C86-F136E5858B8C}"/>
+    <hyperlink ref="A6" location="Product!A20" display="TC-PR-PT-004" xr:uid="{664A12BF-1548-4119-BBBB-D93D80598935}"/>
+    <hyperlink ref="A7" location="Product!A22" display="TC-PR-PT-006" xr:uid="{D1413AFE-CF49-426D-A4E9-06EF9AC1926B}"/>
+    <hyperlink ref="A8" location="Product!A23" display="TC-PR-PT-007" xr:uid="{83373AB8-ED69-4446-A423-1228DB445371}"/>
+    <hyperlink ref="A9" location="Product!A23" display="TC-PR-PT-007" xr:uid="{A4F84E59-28A9-4BAC-B7BC-CBB031AFC121}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestCase/TestCaseTTH.xlsx
+++ b/TestCase/TestCaseTTH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piseumo\Desktop\Sodam\TestCase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11ABBF40-8A27-47D9-B052-E6C3CE402E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673D4AC1-9DD6-41C5-8CB4-9972D9151F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7ACD227-042E-496B-990A-C02EFE6A0BF7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A7ACD227-042E-496B-990A-C02EFE6A0BF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Testcase" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="332">
   <si>
     <t>입력값</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -5581,6 +5581,43 @@
   </si>
   <si>
     <t>모든 테이블의 데이터가 정상 등록</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT 
+    price_id,
+    product_id,
+    final_price AS current_price,
+    LAG(final_price) OVER (PARTITION BY product_id ORDER BY date_time) AS previous_price,
+    CASE 
+        WHEN LAG(final_price) OVER (PARTITION BY product_id ORDER BY date_time) IS NULL THEN NULL
+        ELSE ROUND(
+            (final_price - LAG(final_price) OVER (PARTITION BY product_id ORDER BY date_time)) 
+            / LAG(final_price) OVER (PARTITION BY product_id ORDER BY date_time) * 100, 2)
+    END AS price_change_percent,
+    type,
+    delta,
+    reason,
+    date_time
+FROM Product_Price
+WHERE product_id = 2
+ORDER BY date_time DESC;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-PR-017</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>정상</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">상품 가격 변동률 조회 </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-PR-017</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -5998,16 +6035,16 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="11" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6343,9 +6380,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D89EE23-B240-4F75-A27D-E1B6020D8554}">
   <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F35" sqref="F35"/>
+      <selection pane="bottomLeft" activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7251,17 +7288,35 @@
       </c>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="7"/>
+    <row r="36" spans="1:11" ht="379.5" x14ac:dyDescent="0.3">
+      <c r="A36" s="10" t="s">
+        <v>328</v>
+      </c>
       <c r="B36" s="1"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="1"/>
+      <c r="C36" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="I36" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>216</v>
+      </c>
       <c r="K36" s="1"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -7746,6 +7801,7 @@
     <hyperlink ref="I33" location="Product!A22" display="PASS" xr:uid="{B580A74E-6F2B-451D-92C4-82482DB0774B}"/>
     <hyperlink ref="I34" location="Product!A23" display="PASS" xr:uid="{A836F2BC-B709-4D03-A5EF-AE385A03F7DC}"/>
     <hyperlink ref="I35" location="Product!A24" display="PASS" xr:uid="{E03FAE3A-9FF7-4B84-9D88-B772153E221E}"/>
+    <hyperlink ref="I36" location="Product!A25" display="PASS" xr:uid="{CAAF4CC5-056F-44A2-8F2B-E10364737589}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7753,10 +7809,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF09A374-A999-4B81-A430-C972CF611ADA}">
-  <dimension ref="A2:K24"/>
+  <dimension ref="A2:K25"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7810,17 +7866,17 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33" t="s">
+      <c r="D3" s="31"/>
+      <c r="E3" s="31" t="s">
         <v>210</v>
       </c>
       <c r="F3" s="18">
@@ -7843,11 +7899,11 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="34"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
       <c r="F4" s="18">
         <v>45727.854421296295</v>
       </c>
@@ -8079,17 +8135,17 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="31" t="s">
         <v>237</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>240</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="31" t="s">
         <v>210</v>
       </c>
       <c r="F12" s="18">
@@ -8101,7 +8157,7 @@
       <c r="H12" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="I12" s="33" t="s">
+      <c r="I12" s="31" t="s">
         <v>264</v>
       </c>
       <c r="J12" s="2" t="s">
@@ -8112,15 +8168,15 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="34"/>
-      <c r="B13" s="33"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="2" t="s">
         <v>299</v>
       </c>
       <c r="D13" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="E13" s="33"/>
+      <c r="E13" s="31"/>
       <c r="F13" s="18">
         <v>45728.904421296298</v>
       </c>
@@ -8130,8 +8186,8 @@
       <c r="H13" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33" t="s">
+      <c r="I13" s="31"/>
+      <c r="J13" s="31" t="s">
         <v>265</v>
       </c>
       <c r="K13" s="2" t="s">
@@ -8139,15 +8195,15 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="34"/>
-      <c r="B14" s="33"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D14" s="26" t="s">
         <v>244</v>
       </c>
-      <c r="E14" s="33"/>
+      <c r="E14" s="31"/>
       <c r="F14" s="18">
         <v>45728.862754629627</v>
       </c>
@@ -8157,24 +8213,24 @@
       <c r="H14" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
       <c r="K14" s="2" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="34" t="s">
         <v>232</v>
       </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="33" t="s">
+      <c r="D15" s="34"/>
+      <c r="E15" s="31" t="s">
         <v>210</v>
       </c>
       <c r="F15" s="18">
@@ -8197,11 +8253,11 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="34"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="33"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="31"/>
       <c r="F16" s="18">
         <v>45728.850254629629</v>
       </c>
@@ -8219,16 +8275,16 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="33" t="s">
+      <c r="E17" s="31" t="s">
         <v>210</v>
       </c>
       <c r="F17" s="18">
@@ -8251,13 +8307,13 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="31"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
+      <c r="A18" s="33"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
       <c r="D18" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="E18" s="33"/>
+      <c r="E18" s="31"/>
       <c r="F18" s="18">
         <v>45729.898865740739</v>
       </c>
@@ -8275,16 +8331,16 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="33" t="s">
         <v>278</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="31" t="s">
         <v>290</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E19" s="32" t="s">
+      <c r="E19" s="34" t="s">
         <v>210</v>
       </c>
       <c r="F19" s="18">
@@ -8307,15 +8363,15 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="31"/>
-      <c r="B20" s="33"/>
+      <c r="A20" s="33"/>
+      <c r="B20" s="31"/>
       <c r="C20" s="2" t="s">
         <v>283</v>
       </c>
       <c r="D20" s="26" t="s">
         <v>244</v>
       </c>
-      <c r="E20" s="32"/>
+      <c r="E20" s="34"/>
       <c r="F20" s="18">
         <v>45730.907893518517</v>
       </c>
@@ -8345,7 +8401,7 @@
       <c r="D21" s="26" t="s">
         <v>297</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="1" t="s">
         <v>210</v>
       </c>
       <c r="F21" s="18">
@@ -8374,7 +8430,7 @@
       <c r="D22" s="26" t="s">
         <v>244</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="1" t="s">
         <v>210</v>
       </c>
       <c r="F22" s="18">
@@ -8406,7 +8462,7 @@
       <c r="D23" s="26" t="s">
         <v>297</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="1" t="s">
         <v>210</v>
       </c>
       <c r="F23" s="18">
@@ -8435,7 +8491,7 @@
       <c r="D24" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="1" t="s">
         <v>210</v>
       </c>
       <c r="F24" s="18">
@@ -8454,16 +8510,37 @@
         <v>326</v>
       </c>
     </row>
+    <row r="25" spans="1:11" ht="396" x14ac:dyDescent="0.3">
+      <c r="A25" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F25" s="18">
+        <v>45731.666226851848</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:B14"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="B19:B20"/>
@@ -8478,6 +8555,14 @@
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="E17:E18"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
@@ -8505,6 +8590,7 @@
     <hyperlink ref="D23" location="Product_Link!A8" display="EVENT" xr:uid="{DE1E8CCD-AC02-4706-A1E0-BCF6391B1668}"/>
     <hyperlink ref="A24" location="Testcase!A35" display="TC-PR-016" xr:uid="{1C6D9F98-9DB8-4201-B25E-269CC3F066B6}"/>
     <hyperlink ref="D24" location="Product_Link!A9" display="TRIGGER" xr:uid="{E0D3F259-B1F7-43D2-9EB4-23BF5AD93376}"/>
+    <hyperlink ref="A25" location="Testcase!A36" display="TC-PR-017" xr:uid="{0F49F029-995C-492F-9634-BBA2B071ABBC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8514,9 +8600,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA8DBD4-BFDB-4208-A158-376E89EA9DCF}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/TestCase/TestCaseTTH.xlsx
+++ b/TestCase/TestCaseTTH.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piseumo\Desktop\Sodam\TestCase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673D4AC1-9DD6-41C5-8CB4-9972D9151F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC8AC85D-83E9-4F71-A35F-08353C43974C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A7ACD227-042E-496B-990A-C02EFE6A0BF7}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="332">
   <si>
     <t>입력값</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -366,10 +366,6 @@
   </si>
   <si>
     <t>INSERT INTO Discounts (rate) VALUES (110);</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>SELECT * FROM Product WHERE capacity_value = '문자';</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1640,10 +1636,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>INSERT INTO Product (name, expire_date) VALUES ('테스트상품', DATE_SUB(NOW(), INTERVAL 1 DAY));</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>유통기한 만료 상품이 스케줄러에 의해 삭제되어야 한다.</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -5618,6 +5610,13 @@
   </si>
   <si>
     <t>TC-PR-017</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>VALUES (2, 1, '컨디셔너', NULL, 'conditioner.jpg', 'conditioner_detail.jpg', NULL, '문자', 'ml');</t>
+  </si>
+  <si>
+    <t>INSERT INTO Product (product_id, category_id, name, option_detail, main_image, detail_image, expire_date, capacity_value, capacity_unit)</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -6035,16 +6034,16 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="11" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="11" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6380,9 +6379,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D89EE23-B240-4F75-A27D-E1B6020D8554}">
   <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I36" sqref="I36"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D30" sqref="A30:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6501,16 +6500,16 @@
         <v>36</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="H8" s="2"/>
       <c r="J8" s="1"/>
@@ -6525,16 +6524,16 @@
         <v>36</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>167</v>
       </c>
       <c r="H9" s="2"/>
       <c r="J9" s="1"/>
@@ -6542,23 +6541,23 @@
     </row>
     <row r="10" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>170</v>
       </c>
       <c r="H10" s="2"/>
       <c r="J10" s="1"/>
@@ -6566,23 +6565,23 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H11" s="2"/>
       <c r="J11" s="1"/>
@@ -6590,23 +6589,23 @@
     </row>
     <row r="12" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F12" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="H12" s="2"/>
       <c r="J12" s="1"/>
@@ -6614,23 +6613,23 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>178</v>
       </c>
       <c r="H13" s="2"/>
       <c r="J13" s="1"/>
@@ -6638,23 +6637,23 @@
     </row>
     <row r="14" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F14" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>181</v>
       </c>
       <c r="H14" s="2"/>
       <c r="J14" s="1"/>
@@ -6662,23 +6661,23 @@
     </row>
     <row r="15" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E15" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F15" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="H15" s="2"/>
       <c r="J15" s="1"/>
@@ -6686,23 +6685,23 @@
     </row>
     <row r="16" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F16" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>187</v>
       </c>
       <c r="H16" s="2"/>
       <c r="J16" s="1"/>
@@ -6710,23 +6709,23 @@
     </row>
     <row r="17" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F17" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>190</v>
       </c>
       <c r="H17" s="2"/>
       <c r="J17" s="1"/>
@@ -6734,23 +6733,23 @@
     </row>
     <row r="18" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E18" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F18" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>193</v>
       </c>
       <c r="H18" s="2"/>
       <c r="J18" s="1"/>
@@ -6758,7 +6757,7 @@
     </row>
     <row r="19" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>8</v>
@@ -6767,16 +6766,16 @@
         <v>40</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F19" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>196</v>
       </c>
       <c r="H19" s="1"/>
       <c r="J19" s="1"/>
@@ -6793,7 +6792,7 @@
         <v>41</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>58</v>
@@ -6805,13 +6804,13 @@
         <v>50</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I20" s="14" t="s">
         <v>60</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K20" s="1"/>
     </row>
@@ -6826,7 +6825,7 @@
         <v>41</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>58</v>
@@ -6838,13 +6837,13 @@
         <v>49</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I21" s="19" t="s">
         <v>59</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K21" s="1"/>
     </row>
@@ -6859,25 +6858,25 @@
         <v>41</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>52</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I22" s="19" t="s">
         <v>59</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K22" s="1"/>
     </row>
@@ -6904,17 +6903,17 @@
         <v>67</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I23" s="19" t="s">
         <v>59</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>27</v>
       </c>
@@ -6925,25 +6924,25 @@
         <v>41</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>83</v>
+        <v>331</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>68</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I24" s="19" t="s">
         <v>59</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K24" s="1"/>
     </row>
@@ -6970,13 +6969,13 @@
         <v>73</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I25" s="19" t="s">
         <v>59</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K25" s="1"/>
     </row>
@@ -6989,7 +6988,7 @@
         <v>42</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>58</v>
@@ -7001,13 +7000,13 @@
         <v>51</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I26" s="19" t="s">
         <v>59</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K26" s="1"/>
     </row>
@@ -7020,7 +7019,7 @@
         <v>43</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E27" s="13" t="s">
         <v>57</v>
@@ -7032,50 +7031,50 @@
         <v>80</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I27" s="19" t="s">
         <v>59</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K27" s="1"/>
     </row>
     <row r="28" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E28" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I28" s="21" t="s">
         <v>60</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K28" s="1"/>
     </row>
     <row r="29" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="2" t="s">
@@ -7091,22 +7090,22 @@
         <v>82</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I29" s="21" t="s">
         <v>60</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K29" s="1"/>
     </row>
     <row r="30" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>9</v>
@@ -7115,7 +7114,7 @@
         <v>46</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>58</v>
@@ -7127,69 +7126,69 @@
         <v>70</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I30" s="21" t="s">
         <v>60</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K30" s="1"/>
     </row>
     <row r="31" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E31" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>284</v>
+        <v>92</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I31" s="21" t="s">
         <v>60</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K31" s="1"/>
     </row>
     <row r="32" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E32" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F32" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H32" s="2" t="s">
         <v>286</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>288</v>
       </c>
       <c r="I32" s="19" t="s">
         <v>59</v>
@@ -7199,57 +7198,57 @@
     </row>
     <row r="33" spans="1:11" ht="330" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E33" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I33" s="19" t="s">
         <v>59</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K33" s="1"/>
     </row>
     <row r="34" spans="1:11" ht="99" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E34" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I34" s="19" t="s">
         <v>59</v>
@@ -7259,63 +7258,63 @@
     </row>
     <row r="35" spans="1:11" ht="330" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E35" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F35" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="G35" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="G35" s="2" t="s">
-        <v>323</v>
-      </c>
       <c r="H35" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I35" s="19" t="s">
         <v>59</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K35" s="1"/>
     </row>
     <row r="36" spans="1:11" ht="379.5" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I36" s="19" t="s">
         <v>59</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K36" s="1"/>
     </row>
@@ -7373,53 +7372,53 @@
     </row>
     <row r="41" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="E41" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F41" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G41" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
     </row>
     <row r="42" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E42" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F42" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
     </row>
     <row r="43" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>10</v>
@@ -7428,21 +7427,21 @@
         <v>31</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E43" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F43" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>10</v>
@@ -7451,21 +7450,21 @@
         <v>31</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E44" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F44" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="G44" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>10</v>
@@ -7474,21 +7473,21 @@
         <v>32</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E45" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F45" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="G45" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>10</v>
@@ -7497,21 +7496,21 @@
         <v>32</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E46" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F46" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="G46" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>10</v>
@@ -7520,21 +7519,21 @@
         <v>33</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E47" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F47" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="G47" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>10</v>
@@ -7543,21 +7542,21 @@
         <v>33</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E48" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F48" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>10</v>
@@ -7566,21 +7565,21 @@
         <v>34</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E49" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F49" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>10</v>
@@ -7589,16 +7588,16 @@
         <v>34</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E50" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F50" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="G50" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -7651,21 +7650,21 @@
         <v>47</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E56" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F56" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="G56" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>23</v>
@@ -7674,21 +7673,21 @@
         <v>45</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E57" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F57" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="G57" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="132" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>23</v>
@@ -7697,39 +7696,39 @@
         <v>48</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E58" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F58" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="G58" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C59" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="E59" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F59" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="G59" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
@@ -7811,8 +7810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF09A374-A999-4B81-A430-C972CF611ADA}">
   <dimension ref="A2:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7832,58 +7831,58 @@
   <sheetData>
     <row r="2" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>144</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>145</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>62</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="31" t="s">
+      <c r="B3" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31" t="s">
-        <v>210</v>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33" t="s">
+        <v>209</v>
       </c>
       <c r="F3" s="18">
         <v>45727.839618055557</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H3" s="14" t="s">
         <v>60</v>
@@ -7892,23 +7891,23 @@
         <v>50</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K3" s="17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="32"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
       <c r="F4" s="18">
         <v>45727.854421296295</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H4" s="15" t="s">
         <v>59</v>
@@ -7917,10 +7916,10 @@
         <v>50</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="K4" s="17" t="s">
         <v>212</v>
-      </c>
-      <c r="K4" s="17" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
@@ -7928,20 +7927,20 @@
         <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F5" s="18">
         <v>45727.906504629631</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H5" s="15" t="s">
         <v>59</v>
@@ -7950,7 +7949,7 @@
         <v>49</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="33" x14ac:dyDescent="0.3">
@@ -7958,20 +7957,20 @@
         <v>25</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F6" s="18">
         <v>45727.901932870373</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H6" s="15" t="s">
         <v>59</v>
@@ -7980,12 +7979,12 @@
         <v>52</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>65</v>
@@ -7995,13 +7994,13 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F7" s="18">
         <v>45727.907893518517</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H7" s="15" t="s">
         <v>59</v>
@@ -8010,37 +8009,37 @@
         <v>67</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>83</v>
+        <v>331</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F8" s="18">
         <v>45727.910671296297</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H8" s="15" t="s">
         <v>59</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K8" s="2"/>
     </row>
@@ -8052,17 +8051,17 @@
         <v>71</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>72</v>
+        <v>330</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F9" s="18">
         <v>45728.794699074075</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H9" s="15" t="s">
         <v>59</v>
@@ -8071,7 +8070,7 @@
         <v>73</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="115.5" x14ac:dyDescent="0.3">
@@ -8079,20 +8078,18 @@
         <v>29</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>53</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F10" s="18">
         <v>45728.819004629629</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H10" s="15" t="s">
         <v>59</v>
@@ -8101,7 +8098,7 @@
         <v>51</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="33" x14ac:dyDescent="0.3">
@@ -8109,20 +8106,20 @@
         <v>30</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>79</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F11" s="18">
         <v>45728.821087962962</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H11" s="15" t="s">
         <v>59</v>
@@ -8131,278 +8128,278 @@
         <v>80</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="B12" s="31" t="s">
-        <v>237</v>
+      <c r="A12" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>236</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="E12" s="31" t="s">
-        <v>210</v>
+      <c r="E12" s="33" t="s">
+        <v>209</v>
       </c>
       <c r="F12" s="18">
         <v>45729.850254629629</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H12" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="I12" s="31" t="s">
-        <v>264</v>
+      <c r="I12" s="33" t="s">
+        <v>263</v>
       </c>
       <c r="J12" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="K12" s="2" t="s">
-        <v>267</v>
-      </c>
     </row>
     <row r="13" spans="1:11" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="32"/>
-      <c r="B13" s="31"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="33"/>
       <c r="C13" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>243</v>
-      </c>
-      <c r="E13" s="31"/>
+        <v>242</v>
+      </c>
+      <c r="E13" s="33"/>
       <c r="F13" s="18">
         <v>45728.904421296298</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H13" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31" t="s">
-        <v>265</v>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33" t="s">
+        <v>264</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="32"/>
-      <c r="B14" s="31"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="33"/>
       <c r="C14" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>244</v>
-      </c>
-      <c r="E14" s="31"/>
+        <v>243</v>
+      </c>
+      <c r="E14" s="33"/>
       <c r="F14" s="18">
         <v>45728.862754629627</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H14" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
       <c r="K14" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="B15" s="31" t="s">
+      <c r="A15" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="C15" s="34" t="s">
-        <v>232</v>
-      </c>
-      <c r="D15" s="34"/>
-      <c r="E15" s="31" t="s">
-        <v>210</v>
+      <c r="C15" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="D15" s="32"/>
+      <c r="E15" s="33" t="s">
+        <v>209</v>
       </c>
       <c r="F15" s="18">
         <v>45728.844004629631</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H15" s="14" t="s">
         <v>60</v>
       </c>
       <c r="I15" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="K15" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="K15" s="2" t="s">
-        <v>235</v>
-      </c>
     </row>
     <row r="16" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="32"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="31"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="33"/>
       <c r="F16" s="18">
         <v>45728.850254629629</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H16" s="15" t="s">
         <v>59</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A17" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="B17" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="C17" s="31" t="s">
+      <c r="A17" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="31" t="s">
-        <v>210</v>
+      <c r="E17" s="33" t="s">
+        <v>209</v>
       </c>
       <c r="F17" s="18">
         <v>45729.887060185189</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H17" s="14" t="s">
         <v>60</v>
       </c>
       <c r="I17" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J17" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="K17" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="K17" s="2" t="s">
-        <v>271</v>
-      </c>
     </row>
     <row r="18" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="33"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
       <c r="D18" s="26" t="s">
-        <v>243</v>
-      </c>
-      <c r="E18" s="31"/>
+        <v>242</v>
+      </c>
+      <c r="E18" s="33"/>
       <c r="F18" s="18">
         <v>45729.898865740739</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H18" s="15" t="s">
         <v>59</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J18" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="31" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="33" t="s">
-        <v>278</v>
-      </c>
-      <c r="B19" s="31" t="s">
-        <v>290</v>
+      <c r="B19" s="33" t="s">
+        <v>288</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E19" s="34" t="s">
-        <v>210</v>
+        <v>92</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>209</v>
       </c>
       <c r="F19" s="18">
         <v>45730.857199074075</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H19" s="14" t="s">
         <v>60</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J19" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="K19" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="K19" s="2" t="s">
-        <v>280</v>
-      </c>
     </row>
     <row r="20" spans="1:11" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="33"/>
-      <c r="B20" s="31"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="33"/>
       <c r="C20" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>244</v>
-      </c>
-      <c r="E20" s="34"/>
+        <v>243</v>
+      </c>
+      <c r="E20" s="32"/>
       <c r="F20" s="18">
         <v>45730.907893518517</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H20" s="15" t="s">
         <v>59</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>289</v>
-      </c>
       <c r="C21" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F21" s="18">
         <v>45731.473171296297</v>
@@ -8411,59 +8408,59 @@
         <v>59</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="330" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F22" s="18">
         <v>45731.555810185186</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H22" s="15" t="s">
         <v>59</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="99" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F23" s="18">
         <v>45731.557893518519</v>
@@ -8472,75 +8469,83 @@
         <v>59</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="346.5" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="D24" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F24" s="18">
         <v>45731.572476851848</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H24" s="15" t="s">
         <v>59</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="396" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F25" s="18">
         <v>45731.666226851848</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H25" s="15" t="s">
         <v>59</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="B19:B20"/>
@@ -8555,14 +8560,6 @@
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="E17:E18"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:B14"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
@@ -8576,8 +8573,8 @@
     <hyperlink ref="A11" location="Testcase!A27" display="TC-PR-008" xr:uid="{33A32BD7-4542-400D-8704-3548AFA7E140}"/>
     <hyperlink ref="A15" location="Testcase!A29" display="TC-PR-010" xr:uid="{B4BCDD2B-DD07-4B34-91DE-9DC3BCCDF70E}"/>
     <hyperlink ref="A12" location="Testcase!A28" display="TC-PR-009" xr:uid="{EDB43B30-BA2A-4B28-A209-893EF6C03358}"/>
-    <hyperlink ref="D13" location="Product_Link!A3" display="TRIGGER" xr:uid="{DCEFB688-03A7-423F-A176-9E29C01FDF3F}"/>
-    <hyperlink ref="D14" location="Product_Link!A4" display="PROCEDURE" xr:uid="{00590F7A-1476-440E-AB91-8E05A7D10550}"/>
+    <hyperlink ref="D13" location="Product_Link!A2" display="TRIGGER" xr:uid="{DCEFB688-03A7-423F-A176-9E29C01FDF3F}"/>
+    <hyperlink ref="D14" location="Product_Link!A3" display="PROCEDURE" xr:uid="{00590F7A-1476-440E-AB91-8E05A7D10550}"/>
     <hyperlink ref="A17" location="Testcase!A30" display="TC-PR-011" xr:uid="{B5122B69-F17C-452F-BE41-132A94C926DD}"/>
     <hyperlink ref="D18" location="Product_Link!A5" display="TRIGGER" xr:uid="{D7484DD1-5DA3-45CD-9D37-8E301313AB3F}"/>
     <hyperlink ref="A19" location="Testcase!A31" display="TC-PR-012" xr:uid="{7E957F92-B614-4B51-B5F2-457252554C58}"/>
@@ -8601,8 +8598,8 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8619,65 +8616,65 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>245</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>256</v>
-      </c>
-      <c r="C1" s="22" t="s">
+      <c r="D1" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="E1" s="23" t="s">
         <v>247</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="F1" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="G1" s="22" t="s">
         <v>249</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="175.5" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="C2" s="24" t="s">
         <v>251</v>
       </c>
-      <c r="B2" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="C2" s="24" t="s">
+      <c r="D2" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>253</v>
-      </c>
       <c r="E2" s="27" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F2" s="25">
         <v>45728</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E3" s="27" t="s">
         <v>254</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>244</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>257</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="E3" s="27" t="s">
-        <v>255</v>
       </c>
       <c r="F3" s="25">
         <v>45729</v>
@@ -8685,42 +8682,42 @@
     </row>
     <row r="4" spans="1:7" ht="225" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E4" s="27" t="s">
         <v>272</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>274</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>273</v>
       </c>
       <c r="F4" s="25">
         <v>45729</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="C5" s="24" t="s">
         <v>281</v>
       </c>
-      <c r="B5" s="24" t="s">
-        <v>244</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>282</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F5" s="25">
         <v>45730</v>
@@ -8728,19 +8725,19 @@
     </row>
     <row r="6" spans="1:7" ht="135" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>295</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E6" s="27" t="s">
         <v>293</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>297</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>296</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>295</v>
       </c>
       <c r="F6" s="25">
         <v>45731</v>
@@ -8748,19 +8745,19 @@
     </row>
     <row r="7" spans="1:7" ht="342" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C7" s="24" t="s">
+        <v>304</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="E7" s="27" t="s">
         <v>306</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>308</v>
       </c>
       <c r="F7" s="25">
         <v>45731</v>
@@ -8768,19 +8765,19 @@
     </row>
     <row r="8" spans="1:7" ht="165" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F8" s="25">
         <v>45731</v>
@@ -8788,19 +8785,19 @@
     </row>
     <row r="9" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C9" s="24" t="s">
+        <v>316</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="E9" s="27" t="s">
         <v>318</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>320</v>
       </c>
       <c r="F9" s="25">
         <v>45731</v>

--- a/TestCase/TestCaseTTH.xlsx
+++ b/TestCase/TestCaseTTH.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piseumo\Desktop\Sodam\TestCase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC8AC85D-83E9-4F71-A35F-08353C43974C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673D4AC1-9DD6-41C5-8CB4-9972D9151F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A7ACD227-042E-496B-990A-C02EFE6A0BF7}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="332">
   <si>
     <t>입력값</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -366,6 +366,10 @@
   </si>
   <si>
     <t>INSERT INTO Discounts (rate) VALUES (110);</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT * FROM Product WHERE capacity_value = '문자';</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1636,6 +1640,10 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>INSERT INTO Product (name, expire_date) VALUES ('테스트상품', DATE_SUB(NOW(), INTERVAL 1 DAY));</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>유통기한 만료 상품이 스케줄러에 의해 삭제되어야 한다.</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -5610,13 +5618,6 @@
   </si>
   <si>
     <t>TC-PR-017</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>VALUES (2, 1, '컨디셔너', NULL, 'conditioner.jpg', 'conditioner_detail.jpg', NULL, '문자', 'ml');</t>
-  </si>
-  <si>
-    <t>INSERT INTO Product (product_id, category_id, name, option_detail, main_image, detail_image, expire_date, capacity_value, capacity_unit)</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -6034,16 +6035,16 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="11" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6379,9 +6380,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D89EE23-B240-4F75-A27D-E1B6020D8554}">
   <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D30" sqref="A30:XFD30"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6500,16 +6501,16 @@
         <v>36</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H8" s="2"/>
       <c r="J8" s="1"/>
@@ -6524,16 +6525,16 @@
         <v>36</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H9" s="2"/>
       <c r="J9" s="1"/>
@@ -6541,23 +6542,23 @@
     </row>
     <row r="10" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H10" s="2"/>
       <c r="J10" s="1"/>
@@ -6565,23 +6566,23 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H11" s="2"/>
       <c r="J11" s="1"/>
@@ -6589,23 +6590,23 @@
     </row>
     <row r="12" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H12" s="2"/>
       <c r="J12" s="1"/>
@@ -6613,23 +6614,23 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H13" s="2"/>
       <c r="J13" s="1"/>
@@ -6637,23 +6638,23 @@
     </row>
     <row r="14" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H14" s="2"/>
       <c r="J14" s="1"/>
@@ -6661,23 +6662,23 @@
     </row>
     <row r="15" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E15" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H15" s="2"/>
       <c r="J15" s="1"/>
@@ -6685,23 +6686,23 @@
     </row>
     <row r="16" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H16" s="2"/>
       <c r="J16" s="1"/>
@@ -6709,23 +6710,23 @@
     </row>
     <row r="17" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H17" s="2"/>
       <c r="J17" s="1"/>
@@ -6733,23 +6734,23 @@
     </row>
     <row r="18" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E18" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H18" s="2"/>
       <c r="J18" s="1"/>
@@ -6757,7 +6758,7 @@
     </row>
     <row r="19" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>8</v>
@@ -6766,16 +6767,16 @@
         <v>40</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H19" s="1"/>
       <c r="J19" s="1"/>
@@ -6792,7 +6793,7 @@
         <v>41</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>58</v>
@@ -6804,13 +6805,13 @@
         <v>50</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I20" s="14" t="s">
         <v>60</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K20" s="1"/>
     </row>
@@ -6825,7 +6826,7 @@
         <v>41</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>58</v>
@@ -6837,13 +6838,13 @@
         <v>49</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I21" s="19" t="s">
         <v>59</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K21" s="1"/>
     </row>
@@ -6858,25 +6859,25 @@
         <v>41</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>52</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I22" s="19" t="s">
         <v>59</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K22" s="1"/>
     </row>
@@ -6903,17 +6904,17 @@
         <v>67</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I23" s="19" t="s">
         <v>59</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>27</v>
       </c>
@@ -6924,25 +6925,25 @@
         <v>41</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>331</v>
+        <v>83</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>68</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I24" s="19" t="s">
         <v>59</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K24" s="1"/>
     </row>
@@ -6969,13 +6970,13 @@
         <v>73</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I25" s="19" t="s">
         <v>59</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K25" s="1"/>
     </row>
@@ -6988,7 +6989,7 @@
         <v>42</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>58</v>
@@ -7000,13 +7001,13 @@
         <v>51</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I26" s="19" t="s">
         <v>59</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K26" s="1"/>
     </row>
@@ -7019,7 +7020,7 @@
         <v>43</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E27" s="13" t="s">
         <v>57</v>
@@ -7031,50 +7032,50 @@
         <v>80</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I27" s="19" t="s">
         <v>59</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K27" s="1"/>
     </row>
     <row r="28" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E28" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F28" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="G28" s="2" t="s">
-        <v>237</v>
-      </c>
       <c r="H28" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I28" s="21" t="s">
         <v>60</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K28" s="1"/>
     </row>
     <row r="29" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="2" t="s">
@@ -7090,22 +7091,22 @@
         <v>82</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I29" s="21" t="s">
         <v>60</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K29" s="1"/>
     </row>
     <row r="30" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>9</v>
@@ -7114,7 +7115,7 @@
         <v>46</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>58</v>
@@ -7126,69 +7127,69 @@
         <v>70</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I30" s="21" t="s">
         <v>60</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K30" s="1"/>
     </row>
     <row r="31" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E31" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>92</v>
+        <v>284</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I31" s="21" t="s">
         <v>60</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K31" s="1"/>
     </row>
     <row r="32" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E32" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="I32" s="19" t="s">
         <v>59</v>
@@ -7198,57 +7199,57 @@
     </row>
     <row r="33" spans="1:11" ht="330" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E33" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="I33" s="19" t="s">
         <v>59</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K33" s="1"/>
     </row>
     <row r="34" spans="1:11" ht="99" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E34" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="I34" s="19" t="s">
         <v>59</v>
@@ -7258,63 +7259,63 @@
     </row>
     <row r="35" spans="1:11" ht="330" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E35" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="I35" s="19" t="s">
         <v>59</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K35" s="1"/>
     </row>
     <row r="36" spans="1:11" ht="379.5" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="E36" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="F36" s="2" t="s">
-        <v>325</v>
-      </c>
       <c r="G36" s="2" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="I36" s="19" t="s">
         <v>59</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K36" s="1"/>
     </row>
@@ -7372,53 +7373,53 @@
     </row>
     <row r="41" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E41" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
     </row>
     <row r="42" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E42" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F42" s="17" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
     </row>
     <row r="43" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>10</v>
@@ -7427,21 +7428,21 @@
         <v>31</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E43" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F43" s="17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>10</v>
@@ -7450,21 +7451,21 @@
         <v>31</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E44" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F44" s="17" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>10</v>
@@ -7473,21 +7474,21 @@
         <v>32</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E45" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F45" s="17" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>10</v>
@@ -7496,21 +7497,21 @@
         <v>32</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E46" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F46" s="17" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>10</v>
@@ -7519,21 +7520,21 @@
         <v>33</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E47" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F47" s="17" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>10</v>
@@ -7542,21 +7543,21 @@
         <v>33</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E48" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F48" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>10</v>
@@ -7565,21 +7566,21 @@
         <v>34</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E49" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F49" s="17" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>10</v>
@@ -7588,16 +7589,16 @@
         <v>34</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E50" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F50" s="17" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -7650,21 +7651,21 @@
         <v>47</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E56" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F56" s="17" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>23</v>
@@ -7673,21 +7674,21 @@
         <v>45</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E57" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F57" s="17" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="132" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>23</v>
@@ -7696,39 +7697,39 @@
         <v>48</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E58" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F58" s="17" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E59" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F59" s="17" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
@@ -7810,8 +7811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF09A374-A999-4B81-A430-C972CF611ADA}">
   <dimension ref="A2:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7831,58 +7832,58 @@
   <sheetData>
     <row r="2" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>213</v>
-      </c>
       <c r="H2" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>62</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" s="33" t="s">
+      <c r="B3" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33" t="s">
-        <v>209</v>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31" t="s">
+        <v>210</v>
       </c>
       <c r="F3" s="18">
         <v>45727.839618055557</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H3" s="14" t="s">
         <v>60</v>
@@ -7891,23 +7892,23 @@
         <v>50</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K3" s="17" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="34"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
       <c r="F4" s="18">
         <v>45727.854421296295</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H4" s="15" t="s">
         <v>59</v>
@@ -7916,10 +7917,10 @@
         <v>50</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K4" s="17" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
@@ -7927,20 +7928,20 @@
         <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F5" s="18">
         <v>45727.906504629631</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H5" s="15" t="s">
         <v>59</v>
@@ -7949,7 +7950,7 @@
         <v>49</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="33" x14ac:dyDescent="0.3">
@@ -7957,20 +7958,20 @@
         <v>25</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F6" s="18">
         <v>45727.901932870373</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H6" s="15" t="s">
         <v>59</v>
@@ -7979,12 +7980,12 @@
         <v>52</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>65</v>
@@ -7994,13 +7995,13 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F7" s="18">
         <v>45727.907893518517</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H7" s="15" t="s">
         <v>59</v>
@@ -8009,37 +8010,37 @@
         <v>67</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>331</v>
+        <v>83</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F8" s="18">
         <v>45727.910671296297</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H8" s="15" t="s">
         <v>59</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K8" s="2"/>
     </row>
@@ -8051,17 +8052,17 @@
         <v>71</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>330</v>
+        <v>72</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F9" s="18">
         <v>45728.794699074075</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H9" s="15" t="s">
         <v>59</v>
@@ -8070,7 +8071,7 @@
         <v>73</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="115.5" x14ac:dyDescent="0.3">
@@ -8078,18 +8079,20 @@
         <v>29</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F10" s="18">
         <v>45728.819004629629</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H10" s="15" t="s">
         <v>59</v>
@@ -8098,7 +8101,7 @@
         <v>51</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="33" x14ac:dyDescent="0.3">
@@ -8106,20 +8109,20 @@
         <v>30</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>79</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F11" s="18">
         <v>45728.821087962962</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H11" s="15" t="s">
         <v>59</v>
@@ -8128,278 +8131,278 @@
         <v>80</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>236</v>
+      <c r="A12" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>237</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="E12" s="33" t="s">
-        <v>209</v>
+      <c r="E12" s="31" t="s">
+        <v>210</v>
       </c>
       <c r="F12" s="18">
         <v>45729.850254629629</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H12" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="I12" s="33" t="s">
-        <v>263</v>
+      <c r="I12" s="31" t="s">
+        <v>264</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="34"/>
-      <c r="B13" s="33"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>242</v>
-      </c>
-      <c r="E13" s="33"/>
+        <v>243</v>
+      </c>
+      <c r="E13" s="31"/>
       <c r="F13" s="18">
         <v>45728.904421296298</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H13" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33" t="s">
-        <v>264</v>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31" t="s">
+        <v>265</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="34"/>
-      <c r="B14" s="33"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>243</v>
-      </c>
-      <c r="E14" s="33"/>
+        <v>244</v>
+      </c>
+      <c r="E14" s="31"/>
       <c r="F14" s="18">
         <v>45728.862754629627</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H14" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
       <c r="K14" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="B15" s="33" t="s">
+      <c r="A15" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="C15" s="32" t="s">
-        <v>231</v>
-      </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="33" t="s">
-        <v>209</v>
+      <c r="C15" s="34" t="s">
+        <v>232</v>
+      </c>
+      <c r="D15" s="34"/>
+      <c r="E15" s="31" t="s">
+        <v>210</v>
       </c>
       <c r="F15" s="18">
         <v>45728.844004629631</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H15" s="14" t="s">
         <v>60</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="34"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="33"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="31"/>
       <c r="F16" s="18">
         <v>45728.850254629629</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H16" s="15" t="s">
         <v>59</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A17" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="C17" s="33" t="s">
+      <c r="A17" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="33" t="s">
-        <v>209</v>
+      <c r="E17" s="31" t="s">
+        <v>210</v>
       </c>
       <c r="F17" s="18">
         <v>45729.887060185189</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H17" s="14" t="s">
         <v>60</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="31"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
+      <c r="A18" s="33"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
       <c r="D18" s="26" t="s">
-        <v>242</v>
-      </c>
-      <c r="E18" s="33"/>
+        <v>243</v>
+      </c>
+      <c r="E18" s="31"/>
       <c r="F18" s="18">
         <v>45729.898865740739</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H18" s="15" t="s">
         <v>59</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="31" t="s">
-        <v>277</v>
-      </c>
-      <c r="B19" s="33" t="s">
-        <v>288</v>
+      <c r="A19" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>290</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E19" s="32" t="s">
-        <v>209</v>
+        <v>93</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>210</v>
       </c>
       <c r="F19" s="18">
         <v>45730.857199074075</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H19" s="14" t="s">
         <v>60</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="31"/>
-      <c r="B20" s="33"/>
+      <c r="A20" s="33"/>
+      <c r="B20" s="31"/>
       <c r="C20" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>243</v>
-      </c>
-      <c r="E20" s="32"/>
+        <v>244</v>
+      </c>
+      <c r="E20" s="34"/>
       <c r="F20" s="18">
         <v>45730.907893518517</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H20" s="15" t="s">
         <v>59</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F21" s="18">
         <v>45731.473171296297</v>
@@ -8408,59 +8411,59 @@
         <v>59</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="330" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F22" s="18">
         <v>45731.555810185186</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H22" s="15" t="s">
         <v>59</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="99" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F23" s="18">
         <v>45731.557893518519</v>
@@ -8469,83 +8472,75 @@
         <v>59</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="346.5" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F24" s="18">
         <v>45731.572476851848</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H24" s="15" t="s">
         <v>59</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="396" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F25" s="18">
         <v>45731.666226851848</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H25" s="15" t="s">
         <v>59</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:B14"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="B19:B20"/>
@@ -8560,6 +8555,14 @@
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="E17:E18"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
@@ -8573,8 +8576,8 @@
     <hyperlink ref="A11" location="Testcase!A27" display="TC-PR-008" xr:uid="{33A32BD7-4542-400D-8704-3548AFA7E140}"/>
     <hyperlink ref="A15" location="Testcase!A29" display="TC-PR-010" xr:uid="{B4BCDD2B-DD07-4B34-91DE-9DC3BCCDF70E}"/>
     <hyperlink ref="A12" location="Testcase!A28" display="TC-PR-009" xr:uid="{EDB43B30-BA2A-4B28-A209-893EF6C03358}"/>
-    <hyperlink ref="D13" location="Product_Link!A2" display="TRIGGER" xr:uid="{DCEFB688-03A7-423F-A176-9E29C01FDF3F}"/>
-    <hyperlink ref="D14" location="Product_Link!A3" display="PROCEDURE" xr:uid="{00590F7A-1476-440E-AB91-8E05A7D10550}"/>
+    <hyperlink ref="D13" location="Product_Link!A3" display="TRIGGER" xr:uid="{DCEFB688-03A7-423F-A176-9E29C01FDF3F}"/>
+    <hyperlink ref="D14" location="Product_Link!A4" display="PROCEDURE" xr:uid="{00590F7A-1476-440E-AB91-8E05A7D10550}"/>
     <hyperlink ref="A17" location="Testcase!A30" display="TC-PR-011" xr:uid="{B5122B69-F17C-452F-BE41-132A94C926DD}"/>
     <hyperlink ref="D18" location="Product_Link!A5" display="TRIGGER" xr:uid="{D7484DD1-5DA3-45CD-9D37-8E301313AB3F}"/>
     <hyperlink ref="A19" location="Testcase!A31" display="TC-PR-012" xr:uid="{7E957F92-B614-4B51-B5F2-457252554C58}"/>
@@ -8598,8 +8601,8 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8616,65 +8619,65 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="175.5" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F2" s="25">
         <v>45728</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F3" s="25">
         <v>45729</v>
@@ -8682,42 +8685,42 @@
     </row>
     <row r="4" spans="1:7" ht="225" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C4" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E4" s="27" t="s">
         <v>273</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>272</v>
       </c>
       <c r="F4" s="25">
         <v>45729</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F5" s="25">
         <v>45730</v>
@@ -8725,19 +8728,19 @@
     </row>
     <row r="6" spans="1:7" ht="135" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B6" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>296</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E6" s="27" t="s">
         <v>295</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>294</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>293</v>
       </c>
       <c r="F6" s="25">
         <v>45731</v>
@@ -8745,19 +8748,19 @@
     </row>
     <row r="7" spans="1:7" ht="342" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="B7" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>304</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>303</v>
-      </c>
       <c r="E7" s="27" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F7" s="25">
         <v>45731</v>
@@ -8765,19 +8768,19 @@
     </row>
     <row r="8" spans="1:7" ht="165" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>310</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E8" s="27" t="s">
         <v>309</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>295</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>308</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>307</v>
       </c>
       <c r="F8" s="25">
         <v>45731</v>
@@ -8785,19 +8788,19 @@
     </row>
     <row r="9" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="E9" s="27" t="s">
         <v>320</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>318</v>
       </c>
       <c r="F9" s="25">
         <v>45731</v>

--- a/TestCase/TestCaseTTH.xlsx
+++ b/TestCase/TestCaseTTH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piseumo\Desktop\Sodam\TestCase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673D4AC1-9DD6-41C5-8CB4-9972D9151F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC14BB19-CA8C-4F9E-B9D1-CA160E491E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A7ACD227-042E-496B-990A-C02EFE6A0BF7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7ACD227-042E-496B-990A-C02EFE6A0BF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Testcase" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="337">
   <si>
     <t>입력값</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -5620,6 +5620,303 @@
     <t>TC-PR-017</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>TC-PR-018</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 상품별 남은 재고 개수 조회( 공급처에서 이미 order가 들어간 중인 상품 제외</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+SELECT DISTINCT 
+    p.product_id,
+    p.name AS product_name,
+    wi.quantity AS stock_quantity
+FROM Product p
+JOIN Warehouse_Inventory wi ON p.product_id = wi.product_id
+LEFT JOIN (
+    -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>🚀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 최신 created_at을 기준으로 해당 상품(product_id)의 최신 요청 데이터만 선택
+    SELECT wod.product_id, sor.request_id, sor.status
+    FROM Warehouse_Orders_Details wod
+    JOIN Warehouse_Orders_Requests sor ON wod.request_id = sor.request_id
+    WHERE sor.type = '입고'  -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>🔥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 입고 요청만 필터링
+    AND sor.source = '공급처발주' -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>🔥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 공급처 발주만 필터링
+    AND (wod.product_id, sor.created_at) IN (
+        SELECT wod_sub.product_id, MAX(sor_sub.created_at)
+        FROM Warehouse_Orders_Details wod_sub
+        JOIN Warehouse_Orders_Requests sor_sub ON wod_sub.request_id = sor_sub.request_id
+        WHERE sor_sub.type = '입고'  
+        AND sor_sub.source = '공급처발주'
+        GROUP BY wod_sub.product_id
+    )
+) AS latest_sor ON wi.product_id = latest_sor.product_id
+AND latest_sor.status IN ('요청', '승인', '입고 준비 중', '배송 중') -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>🚀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 특정 상태 제외
+WHERE wi.quantity &lt; 1000
+AND latest_sor.request_id IS NULL -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>🚀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 최신 요청 데이터가 없거나, 특정 상태가 아닌 경우만 조회
+ORDER BY wi.quantity ASC
+LIMIT 20;</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.391 sec</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SELECT
+    p.product_id,
+    p.name AS product_name,
+    price.final_price AS selling_price,      -- 판매가
+    cost.final_cost AS purchase_cost,        -- 원가
+    -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>👉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 마진율: (판매가 - 원가) / 판매가 * 100
+    ROUND((price.final_price - cost.final_cost) / price.final_price * 100, 2) AS margin_rate_percent,
+    -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>👉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1개당 수익
+    (price.final_price - cost.final_cost) AS profit_per_unit,
+    -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>👉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 판매 수량
+    IFNULL(sales.total_quantity, 0) AS total_sold,
+    -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>👉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 매출 수익 = 판매가 × 수량
+    price.final_price * IFNULL(sales.total_quantity, 0) AS revenue,
+    -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>👉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 총 수익금 = 수익/개 × 수량
+    (price.final_price - cost.final_cost) * IFNULL(sales.total_quantity, 0) AS total_profit
+FROM Product p
+-- 최신 판매가
+JOIN (
+    SELECT product_id, final_price
+    FROM Product_Price pr
+    WHERE date_time = (
+        SELECT MAX(date_time)
+        FROM Product_Price
+        WHERE product_id = pr.product_id
+    )
+) AS price ON p.product_id = price.product_id
+-- 최신 원가
+JOIN (
+    SELECT product_id, final_cost
+    FROM Product_Cost pc
+    WHERE date_time = (
+        SELECT MAX(date_time)
+        FROM Product_Cost
+        WHERE product_id = pc.product_id
+    )
+) AS cost ON p.product_id = cost.product_id
+-- 판매 수량 계산 (온라인 기준 예시)
+LEFT JOIN (
+    SELECT
+        inventory.product_id,
+        SUM(cart.quantity) AS total_quantity
+    FROM Online_Cart_Product cart
+    JOIN Warehouse_Inventory inventory ON cart.inventory_id = inventory.inventory_id
+    GROUP BY inventory.product_id
+) AS sales ON p.product_id = sales.product_id
+ORDER BY total_profit DESC;
+</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -5628,7 +5925,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;년&quot;\ m&quot;월&quot;\ d&quot;일&quot;;@"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5784,6 +6081,12 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="17">
@@ -6380,9 +6683,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D89EE23-B240-4F75-A27D-E1B6020D8554}">
   <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I36" sqref="I36"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7319,26 +7622,38 @@
       </c>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="7"/>
+    <row r="37" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A37" s="10" t="s">
+        <v>332</v>
+      </c>
       <c r="B37" s="1"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
+      <c r="C37" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>333</v>
+      </c>
       <c r="E37" s="13"/>
-      <c r="F37" s="2"/>
+      <c r="F37" s="2" t="s">
+        <v>334</v>
+      </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="19"/>
-      <c r="J37" s="1"/>
+      <c r="J37" s="1" t="s">
+        <v>335</v>
+      </c>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A38" s="7"/>
       <c r="B38" s="1"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="13"/>
-      <c r="F38" s="2"/>
+      <c r="F38" s="2" t="s">
+        <v>336</v>
+      </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="19"/>
@@ -7686,7 +8001,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="132" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>160</v>
       </c>
@@ -7811,7 +8126,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF09A374-A999-4B81-A430-C972CF611ADA}">
   <dimension ref="A2:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>

--- a/TestCase/TestCaseTTH.xlsx
+++ b/TestCase/TestCaseTTH.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piseumo\Desktop\Sodam\TestCase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC14BB19-CA8C-4F9E-B9D1-CA160E491E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31EAA612-C4BA-42D9-93B2-414DEB1CDF8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7ACD227-042E-496B-990A-C02EFE6A0BF7}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="239">
   <si>
     <t>입력값</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -81,14 +81,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>매장 및 직원</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문 및 결제</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>상품</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -117,22 +109,10 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>TC-CM-001</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>TC-PR-001</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>TC-OC-001</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-DM-001</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>배송</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -159,46 +139,6 @@
     <t>TC-PR-008</t>
   </si>
   <si>
-    <t>매장 내 실시간 재고 확인 및 관리</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>매장 내 발주 신청</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>매장 내 결제 및 매출 관리</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>매장별 매출 및 운영 보고서 제공</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-CM-002</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>고객 기본 정보 관리</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>고객 등급 및 로열티 프로그램 관리</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>고객 주문 이력</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>고객 상담 및 피드백 관리</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>고객 리뷰 관리</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>상품 등록 및 관리</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -215,19 +155,7 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>배송 장비 관리</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>유통기한 관리</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>배송 주문 접수 및 기사 할당</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>배송 우선순위 설정</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -333,26 +261,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>결제 처리 및 관리</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문 관리</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문 통계 및 분석</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문 이력 관리 및 분석</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문 취소 및 변경 관리</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>SELECT * FROM Warehouse_Inventory WHERE product_id = 1;</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -432,159 +340,6 @@
     <t>TC-PR-013</t>
   </si>
   <si>
-    <t>TC-EM-002</t>
-  </si>
-  <si>
-    <t>TC-EM-001</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>직원 등록</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>신규 직원 등록</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>INSERT INTO Employees (name, phone, hire_date, salary, role, location_type, insurance) VALUES ('홍길동', '010-1234-5678', '2024-03-10', 3000000, '매장 직원', '매장', 1);</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>직원이 정상적으로 등록됨</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>급여를 음수로 입력</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>INSERT INTO Employees (name, phone, hire_date, salary, role, location_type, insurance) VALUES ('김철수', '010-9999-8888', '2024-03-10', -500000, '매장 직원', '매장', 1);</t>
-  </si>
-  <si>
-    <t>SELECT * FROM Store_Inventory WHERE store_id = 1 AND product_id = 5;</t>
-  </si>
-  <si>
-    <t>상품 출고 시 재고 차감</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">	UPDATE Store_Inventory SET quantity = quantity - 10 WHERE store_id = 1 AND product_id = 5;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 상품의 재고가 감소</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"급여는 음수가 될 수 없습니다." 오류 발생</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>현재 재고 수량이 출력됨</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>매장에서 물류센터로 발주 요청</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>특정 매장의 특정 상품 재고 확인</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>INSERT INTO Store_Order_Requests (store_id, quantity, status) VALUES (1, 100, '요청');</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>발주 요청이 정상 등록됨</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>수량 없이 요청</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>INSERT INTO Store_Order_Requests (store_id, status) VALUES (1, '요청');</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Column 'quantity' cannot be null" 오류 발생</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>매장에서 상품 결제</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>INSERT INTO Payments (store_id, total_amount, payment_method) VALUES (1, 50000, '카드');</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제 정보가 정상 등록됨</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-EM-003</t>
-  </si>
-  <si>
-    <t>TC-EM-004</t>
-  </si>
-  <si>
-    <t>TC-EM-005</t>
-  </si>
-  <si>
-    <t>TC-EM-006</t>
-  </si>
-  <si>
-    <t>TC-EM-007</t>
-  </si>
-  <si>
-    <t>TC-EM-008</t>
-  </si>
-  <si>
-    <t>TC-EM-009</t>
-  </si>
-  <si>
-    <t>TC-EM-010</t>
-  </si>
-  <si>
-    <t>결제 금액을 음수로 입력</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">	INSERT INTO Payments (store_id, total_amount, payment_method) VALUES (1, -10000, '현금');</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"결제 금액은 음수가 될 수 없습니다." 오류 발생</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>특정 매장의 일별 매출 보고서 조회</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">	SELECT store_id, SUM(total_amount) AS total_sales FROM Payments WHERE store_id = 1 AND created_at BETWEEN '2024-03-01' AND '2024-03-10' GROUP BY store_id;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>매출 데이터가 정상적으로 조회됨</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>존재하지 않는 매장의 매출 조회</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">		SELECT store_id, SUM(total_amount) AS total_sales FROM Payments WHERE store_id = 999;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Query affected 0 rows" 오류 발생</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>Test ID</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -603,250 +358,6 @@
   <si>
     <t>예상결과</t>
     <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>배송기사 상태값이 배송가능이 아닌경우</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>INSERT INTO Delivery (driver_id) SELECT driver_id
-FROM Delivery_driver WHERE status != '근무가능';</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"해당 기사는 근무가 가능하지 않습니다."</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>배송차량 상태값이 배송가능이 아닌경우</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>INSERT INTO Delivery_Car (Car_id) SELECT Car_id
-FROM Delivery_Car WHERE status != '배송가능';</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"해당 차량은 배차가 가능하지 않습니다."</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>배송기사가 자신의 id로 배송해야할 리스트를 출력하는 경우</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">SELECT do.*
-FROM Delivery_Option do
-JOIN Delivery d ON do.price_id = d.delivery_id
-WHERE d.status = '배송중'
-  AND d.driver_id = &lt;specific_driver_id&gt; 
-ORDER BY 
-    do.request_datetime IS NULL,  
-    do.request_datetime ASC;     </t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>날짜가 낮은순(우선순위)항목이 
-내림차순으로 배송중인 항목만 출력된다.</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>배송 데이터 백업 및 API 개발</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>배송완료 상태값을 변경시도</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE Delivery
-SET status = '배송중'
-WHERE delivery_id = 1;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>배송완료된 데이터는 배송중으로
- 상태값 변경이 불가</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-DM-002</t>
-  </si>
-  <si>
-    <t>TC-DM-003</t>
-  </si>
-  <si>
-    <t>TC-DM-004</t>
-  </si>
-  <si>
-    <t>고객의 기본 정보를 등록할 때 필수 항목을 누락한다.</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>INSERT INTO Customer (name, email, phone, login_type) VALUES ('홍길동', NULL, '010-1234-5678', 'Form');</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"이메일은 필수 입력 값입니다." 오류 발생</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>존재하지 않는 고객 ID로 고객 정보를 조회한다.</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>SELECT * FROM Customer WHERE customer_id = 9999;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>조회 결과 없음</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>특정 고객의 주문 내역을 기간별로 조회한다.</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>SELECT * FROM Orders WHERE customer_id = 1 AND order_date BETWEEN '2025-01-01' AND '2025-03-10';</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 기간의 주문 내역만 조회된다.</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>존재하지 않는 주문 ID로 조회를 시도한다.</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>SELECT * FROM Orders WHERE order_id = 9999;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>누적 결제 금액에 따라 고객 등급이 자동으로 변경된다.</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE Grade SET accumulated_amount = 1000000 WHERE customer_id = 1;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>누적 금액에 따라 'VIP' 등급으로 변경됨</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>특정 고객의 상담 내역을 조회한다.</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>SELECT * FROM QnA WHERE customer_id = 1;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 고객의 상담 내역이 모두 조회된다.</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>상담이 답변 완료 상태일 때 삭제를 시도한다.</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>DELETE FROM QnA WHERE qna_id = 1 AND status = 'Completed';</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"답변 완료된 상담은 삭제할 수 없습니다." 오류</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>직원이 본인이 응대한 상담 내역을 조회한다.</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>SELECT * FROM QnA WHERE employee_id = 10;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 직원이 응대한 상담 내역만 조회됨</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>직원이 상담에 대한 답변을 등록한다.</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE QnA SET employee_id = 10, answer_content = '답변 완료', answer_time = NOW(), status = 'Completed' WHERE qna_id = 1;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>상담이 'Completed' 상태로 업데이트됨</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>직원이 이미 완료된 상담의 답변을 수정하려고 한다.</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE QnA SET answer_content = '수정된 답변' WHERE qna_id = 1;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"답변 완료된 상담은 수정할 수 없습니다." 오류</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>특정 기간 동안 접수된 상담 유형별 통계를 조회한다.</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>SELECT status, COUNT(*) FROM QnA WHERE inquiry_time BETWEEN '2025-01-01' AND '2025-03-01' GROUP BY status;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>상태별 상담 접수 건수가 올바르게 집계됨</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>별점이 1~5 범위를 벗어난 경우 오류가 발생한다.</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>INSERT INTO Review (customer_id, product_id, star, content) VALUES (1, 10, 6, '별점 초과');</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"별점은 1에서 5 사이여야 합니다." 오류</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC-CM-003</t>
-  </si>
-  <si>
-    <t>TC-CM-004</t>
-  </si>
-  <si>
-    <t>TC-CM-005</t>
-  </si>
-  <si>
-    <t>TC-CM-006</t>
-  </si>
-  <si>
-    <t>TC-CM-007</t>
-  </si>
-  <si>
-    <t>TC-CM-008</t>
-  </si>
-  <si>
-    <t>TC-CM-009</t>
-  </si>
-  <si>
-    <t>TC-CM-010</t>
-  </si>
-  <si>
-    <t>TC-CM-011</t>
-  </si>
-  <si>
-    <t>TC-CM-012</t>
   </si>
   <si>
     <t>SQL</t>
@@ -5762,7 +5273,74 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>7.391 sec</t>
+    <t>TC-PR-019</t>
+  </si>
+  <si>
+    <t>TC-PR-019</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>재고 예측 및 분석</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>순수익이 높은 상품순으로 상품 수익성 분석에 맞는 데이터 조회</t>
+  </si>
+  <si>
+    <t>순수익이 높은 상품순으로 상품 수익성 분석에 맞는 데이터 조회</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품별 재고 개수 조회</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 수익성 데이터 조회</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>정상적으로 조회 단, 실행시간Over</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>21.068 sec</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-PR-018</t>
+  </si>
+  <si>
+    <t>INDEX</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-PR-PT-009</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">idx_warehouse_inventory_quantity / idx_warehouse_orders_details_product_id_request_id /idx_warehouse_orders_requests_created_at /idx_warehouse_orders_requests /idx_warehouse_orders_requests_filter  </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>인덱스를 추가하여 Full Scan 방지,JOIN 속도 개선, 검색 조건 최적화 등</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CREATE INDEX idx_warehouse_inventory_quantity 
+ON Warehouse_Inventory (quantity);
+CREATE INDEX idx_warehouse_orders_details_product_id_request_id 
+ON Warehouse_Orders_Details (product_id, request_id);
+CREATE INDEX idx_warehouse_orders_requests_created_at 
+ON Warehouse_Orders_Requests (request_id, created_at DESC);
+CREATE INDEX idx_warehouse_orders_requests 
+ON Warehouse_Orders_Requests (request_id, type, source, status);
+CREATE INDEX idx_warehouse_orders_requests_filter  
+ON Warehouse_Orders_Requests (type, source, status, created_at);</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC-PR-PT-010</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -5881,6 +5459,146 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 총 수익금 = 수익/개 × 수량
+    (price.final_price - cost.final_cost) * IFNULL(sales.total_quantity, 0) AS total_profit
+FROM Product p
+-- 최신 판매가
+JOIN (
+    SELECT product_id, final_price
+    FROM Product_Price pr
+    WHERE date_time = (
+        SELECT MAX(date_time)
+        FROM Product_Price
+        WHERE product_id = pr.product_id
+    )
+) AS price ON p.product_id = price.product_id
+-- 최신 원가
+JOIN (
+    SELECT product_id, final_cost
+    FROM Product_Cost pc
+    WHERE date_time = (
+        SELECT MAX(date_time)
+        FROM Product_Cost
+        WHERE product_id = pc.product_id
+    )
+) AS cost ON p.product_id = cost.product_id
+-- 판매 수량 계산 (온라인 기준 예시)
+LEFT JOIN (
+    SELECT
+        inventory.product_id,
+        SUM(cart.quantity) AS total_quantity
+    FROM Online_Cart_Product cart
+    JOIN Warehouse_Inventory inventory ON cart.inventory_id = inventory.inventory_id
+    GROUP BY inventory.product_id
+) AS sales ON p.product_id = sales.product_id
+ORDER BY total_profit DESC;</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.578 sec</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT
+    ROW_NUMBER() OVER (ORDER BY 순수익 DESC) AS 순위,
+    t.*
+FROM (
+    SELECT
+        p.product_id,
+        p.name AS '상품명',
+        od_stats.판매가,
+        cost_stats.final_cost AS '원가',
+        ROUND((od_stats.판매가 - cost_stats.final_cost) / od_stats.판매가 * 100, 2) AS '마진율',
+        (od_stats.판매가 - cost_stats.final_cost) AS '1개당 수익',
+        od_stats.판매수량,
+        od_stats.판매가 * od_stats.판매수량 AS '총 매출액',
+        (od_stats.판매가 - cost_stats.final_cost) * od_stats.판매수량 AS '순수익'
+    FROM Product p
+    -- 실제 판매 가격 &amp; 수량
+    LEFT JOIN (
+        SELECT
+            wi.product_id,
+            od.price AS 판매가,
+            COUNT(*) AS 판매수량,
+            MAX(od.created_at) AS 판매시점
+        FROM online_order_detail od
+        JOIN warehouse_inventory wi ON od.inventory_id = wi.inventory_id
+        WHERE od.created_at BETWEEN '2025-03-01' AND '2025-03-31'
+        GROUP BY wi.product_id, od.price
+    ) AS od_stats ON p.product_id = od_stats.product_id
+    -- 주문 시점 기준 가장 가까운 원가
+    LEFT JOIN (
+        SELECT pc.product_id, pc.final_cost
+        FROM Product_Cost pc
+        JOIN (
+            SELECT
+                wi.product_id,
+                od.created_at
+            FROM online_order_detail od
+            JOIN warehouse_inventory wi ON od.inventory_id = wi.inventory_id
+            WHERE od.created_at BETWEEN '2025-03-01' AND '2025-03-31'
+            GROUP BY wi.product_id, od.created_at
+        ) od_info ON pc.product_id = od_info.product_id
+        WHERE pc.date_time = (
+            SELECT MAX(pc2.date_time)
+            FROM Product_Cost pc2
+            WHERE pc2.product_id = pc.product_id
+              AND pc2.date_time &lt;= od_info.created_at
+        )
+    ) AS cost_stats ON p.product_id = cost_stats.product_id
+) t
+ORDER BY 순수익 DESC;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.356 sec</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>39.241 sec</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>결과는 정상적으로 조회 되나, 실행시간 초과</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>실행시간 1초 미만 성공</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>인덱스를 추가하여 Full Scan 방지,JOIN 속도 개선, 검색 조건 최적화 필요</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE INDEX idx_product_price_product_date ON Product_Price (product_id, date_time);
+CREATE INDEX idx_product_cost_product_date ON Product_Cost (product_id, date_time);
+CREATE INDEX idx_inventory_product ON Warehouse_Inventory (product_id);</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">idx_product_price_product_date / idx_product_cost_product_date/ idx_inventory_product  </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>인덱스 추가 및 쿼리 튜닝</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT
+    p.product_id,
+    p.name AS product_name,
+    price.final_price AS selling_price,      -- 판매가
+    cost.final_cost AS purchase_cost,        -- 원가
+    --  마진율: (판매가 - 원가) / 판매가 * 100
+    ROUND((price.final_price - cost.final_cost) / price.final_price * 100, 2) AS margin_rate_percent,
+    --  1개당 수익
+    (price.final_price - cost.final_cost) AS profit_per_unit,
+    --  판매 수량
+    IFNULL(sales.total_quantity, 0) AS total_sold,
+    --  매출 수익 = 판매가 × 수량
+    price.final_price * IFNULL(sales.total_quantity, 0) AS revenue,
+    -- 총 수익금 = 수익/개 × 수량
     (price.final_price - cost.final_cost) * IFNULL(sales.total_quantity, 0) AS total_profit
 FROM Product p
 -- 최신 판매가
@@ -5914,6 +5632,78 @@
 ) AS sales ON p.product_id = sales.product_id
 ORDER BY total_profit DESC;
 </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+SELECT DISTINCT 
+    p.product_id,
+    p.name AS product_name,
+    wi.quantity AS stock_quantity
+FROM Product p
+JOIN Warehouse_Inventory wi ON p.product_id = wi.product_id
+LEFT JOIN (
+    --  최신 created_at을 기준으로 해당 상품(product_id)의 최신 요청 데이터만 선택
+    SELECT wod.product_id, sor.request_id, sor.status
+    FROM Warehouse_Orders_Details wod
+    JOIN Warehouse_Orders_Requests sor ON wod.request_id = sor.request_id
+    WHERE sor.type = '입고'  -- 입고 요청만 필터링
+    AND sor.source = '공급처발주' -- 공급처 발주만 필터링
+    AND (wod.product_id, sor.created_at) IN (
+        SELECT wod_sub.product_id, MAX(sor_sub.created_at)
+        FROM Warehouse_Orders_Details wod_sub
+        JOIN Warehouse_Orders_Requests sor_sub ON wod_sub.request_id = sor_sub.request_id
+        WHERE sor_sub.type = '입고'  
+        AND sor_sub.source = '공급처발주'
+        GROUP BY wod_sub.product_id
+    )
+) AS latest_sor ON wi.product_id = latest_sor.product_id
+AND latest_sor.status IN ('요청', '승인', '입고 준비 중', '배송 중') -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>🚀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 특정 상태 제외
+WHERE wi.quantity &lt; 1000
+AND latest_sor.request_id IS NULL -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>🚀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 최신 요청 데이터가 없거나, 특정 상태가 아닌 경우만 조회
+ORDER BY wi.quantity ASC
+LIMIT 20;</t>
     </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -6244,7 +6034,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6276,9 +6066,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6338,16 +6125,16 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="11" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="11" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6681,11 +6468,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D89EE23-B240-4F75-A27D-E1B6020D8554}">
-  <dimension ref="A1:K66"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6703,59 +6490,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F1" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="30"/>
+      <c r="F1" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="29"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F3" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F4" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
       <c r="F5" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>60</v>
+        <v>14</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="15" t="s">
-        <v>59</v>
+      <c r="I6" s="14" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -6769,10 +6556,10 @@
         <v>4</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>63</v>
+        <v>43</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>0</v>
@@ -6781,1292 +6568,616 @@
         <v>2</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>64</v>
+        <v>44</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>46</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>19</v>
+    <row r="8" spans="1:11" ht="66" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="G8" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="H8" s="2"/>
-      <c r="J8" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="1"/>
+    <row r="9" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C9" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>58</v>
+        <v>63</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>40</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>166</v>
+        <v>37</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="H9" s="2"/>
-      <c r="J9" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="B10" s="1"/>
+    <row r="10" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C10" s="2" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>57</v>
+        <v>64</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>40</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>169</v>
+        <v>93</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="H10" s="2"/>
-      <c r="J10" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="B11" s="1"/>
+    <row r="11" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C11" s="2" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>58</v>
+        <v>47</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>40</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>172</v>
+        <v>48</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="H11" s="2"/>
-      <c r="J11" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="B12" s="1"/>
+      <c r="A12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C12" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>57</v>
+        <v>65</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>40</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>174</v>
+        <v>60</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="H12" s="2"/>
-      <c r="J12" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="B13" s="1"/>
+    <row r="13" spans="1:11" ht="165" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C13" s="2" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>57</v>
+        <v>53</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>40</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>177</v>
+        <v>54</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="H13" s="2"/>
-      <c r="J13" s="1"/>
+        <v>55</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
-        <v>201</v>
+    <row r="14" spans="1:11" ht="165" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="2" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>58</v>
+        <v>66</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>40</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>180</v>
+        <v>35</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="H14" s="2"/>
-      <c r="J14" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
-        <v>202</v>
+      <c r="A15" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E15" s="13" t="s">
+      <c r="F15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="H15" s="2"/>
-      <c r="J15" s="1"/>
+      <c r="H15" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
-        <v>203</v>
+    <row r="16" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>57</v>
-      </c>
       <c r="F16" s="2" t="s">
-        <v>186</v>
+        <v>114</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="H16" s="2"/>
-      <c r="J16" s="1"/>
+        <v>113</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I16" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
-        <v>204</v>
+      <c r="A17" s="10" t="s">
+        <v>73</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E17" s="12" t="s">
         <v>58</v>
       </c>
+      <c r="E17" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="F17" s="2" t="s">
-        <v>189</v>
+        <v>59</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="H17" s="2"/>
-      <c r="J17" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I17" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="B18" s="1"/>
+      <c r="A18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C18" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>57</v>
+        <v>68</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>40</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>192</v>
+        <v>51</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="H18" s="2"/>
-      <c r="J18" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I18" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="K18" s="1"/>
     </row>
     <row r="19" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A19" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="1"/>
       <c r="C19" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>194</v>
+        <v>69</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>195</v>
+        <v>159</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="H19" s="1"/>
-      <c r="J19" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I19" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" ht="66" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="B20" s="1"/>
       <c r="C20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I20" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="I20" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>220</v>
-      </c>
+      <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="330" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="B21" s="1"/>
       <c r="C21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="I21" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="I21" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>216</v>
+      <c r="J21" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>9</v>
-      </c>
+    <row r="22" spans="1:11" ht="99" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B22" s="1"/>
       <c r="C22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I22" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="I22" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>216</v>
-      </c>
+      <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="330" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="I23" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="I23" s="19" t="s">
-        <v>59</v>
-      </c>
       <c r="J23" s="2" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>9</v>
-      </c>
+    <row r="24" spans="1:11" ht="379.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="B24" s="1"/>
       <c r="C24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="I24" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="I24" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>216</v>
+      <c r="J24" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11" ht="165" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="D25" s="2" t="s">
-        <v>71</v>
+        <v>208</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>72</v>
+        <v>238</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>73</v>
+        <v>215</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="I25" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
+      </c>
+      <c r="I25" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>230</v>
       </c>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11" ht="165" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
-        <v>29</v>
+    <row r="26" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
+        <v>211</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="I26" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="I26" s="19" t="s">
-        <v>59</v>
-      </c>
       <c r="J26" s="1" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="K26" s="1"/>
-    </row>
-    <row r="27" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A27" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="I27" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="K27" s="1"/>
-    </row>
-    <row r="28" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="I28" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="K28" s="1"/>
-    </row>
-    <row r="29" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A29" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="I29" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="K29" s="1"/>
-    </row>
-    <row r="30" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I30" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="K30" s="1"/>
-    </row>
-    <row r="31" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A31" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="I31" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="K31" s="1"/>
-    </row>
-    <row r="32" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A32" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="I32" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-    </row>
-    <row r="33" spans="1:11" ht="330" x14ac:dyDescent="0.3">
-      <c r="A33" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="I33" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="K33" s="1"/>
-    </row>
-    <row r="34" spans="1:11" ht="99" x14ac:dyDescent="0.3">
-      <c r="A34" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="I34" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-    </row>
-    <row r="35" spans="1:11" ht="330" x14ac:dyDescent="0.3">
-      <c r="A35" s="10" t="s">
-        <v>319</v>
-      </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="I35" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="K35" s="1"/>
-    </row>
-    <row r="36" spans="1:11" ht="379.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="I36" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="K36" s="1"/>
-    </row>
-    <row r="37" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="A37" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="E37" s="13"/>
-      <c r="F37" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="K37" s="1"/>
-    </row>
-    <row r="38" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="A38" s="7"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="7"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="7"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-    </row>
-    <row r="41" spans="1:11" ht="66" x14ac:dyDescent="0.3">
-      <c r="A41" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-    </row>
-    <row r="42" spans="1:11" ht="66" x14ac:dyDescent="0.3">
-      <c r="A42" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B42" s="1"/>
-      <c r="C42" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E42" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F42" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-    </row>
-    <row r="43" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A43" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F43" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A44" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E44" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F44" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A45" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E45" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F45" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A46" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E46" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F46" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A47" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E47" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F47" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A48" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E48" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F48" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="66" x14ac:dyDescent="0.3">
-      <c r="A49" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E49" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F49" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A50" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E50" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F50" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="9"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="9"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="9"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="9"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A56" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E56" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F56" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A57" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E57" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F57" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A58" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E58" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F58" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A59" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E59" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F59" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="1"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="1"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="1"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="1"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="1"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" s="1"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A7:N7" xr:uid="{7D89EE23-B240-4F75-A27D-E1B6020D8554}"/>
@@ -8075,18 +7186,6 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="A8:A19">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F2">
     <cfRule type="colorScale" priority="3">
       <colorScale>
@@ -8100,23 +7199,25 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="I20" location="Product!A3" display="FAIL" xr:uid="{807EAF35-E764-4257-B60E-15EF59B4DE49}"/>
-    <hyperlink ref="I22" location="Product!A6" display="PASS" xr:uid="{DEDD730C-C338-4627-8F85-E74D553BDBE7}"/>
-    <hyperlink ref="I21" location="Product!A5" display="PASS" xr:uid="{7E8BCDF1-B2B7-405F-B563-4FA74669AFEA}"/>
-    <hyperlink ref="I23" location="Product!A7" display="PASS" xr:uid="{623C1634-DA33-44B5-9A0A-982408E1032D}"/>
-    <hyperlink ref="I24" location="Product!A8" display="PASS" xr:uid="{E56AC82C-3B4A-4429-AD9F-B93E06CDAD20}"/>
-    <hyperlink ref="I25" location="Product!A9" display="PASS" xr:uid="{CB189510-6D9D-42BA-B46E-BB1282D5B47C}"/>
-    <hyperlink ref="I26" location="Product!A10" display="PASS" xr:uid="{5E5D8DD4-B664-46A5-8F03-DF29E136DB83}"/>
-    <hyperlink ref="I27" location="Product!A11" display="PASS" xr:uid="{8750CEB0-74FE-4540-BA7D-252808363D70}"/>
-    <hyperlink ref="I29" location="Product!A15" display="FAIL" xr:uid="{CF15E949-6C74-4FF6-91B7-958EE84586CC}"/>
-    <hyperlink ref="I28" location="Product!A12" display="FAIL" xr:uid="{78281A62-6F2D-48E9-84A5-7E9FE2E1AB7E}"/>
-    <hyperlink ref="I30" location="Product!A17" display="FAIL" xr:uid="{4960BBA6-983B-45B4-8918-B103EF03CA3C}"/>
-    <hyperlink ref="I31" location="Product!A19" display="FAIL" xr:uid="{BE6D9797-1B1D-4AC9-9F6E-ED4D3594DD24}"/>
-    <hyperlink ref="I32" location="Product!A21" display="PASS" xr:uid="{FA36EBE5-5ED2-4EC8-9388-47BF97541065}"/>
-    <hyperlink ref="I33" location="Product!A22" display="PASS" xr:uid="{B580A74E-6F2B-451D-92C4-82482DB0774B}"/>
-    <hyperlink ref="I34" location="Product!A23" display="PASS" xr:uid="{A836F2BC-B709-4D03-A5EF-AE385A03F7DC}"/>
-    <hyperlink ref="I35" location="Product!A24" display="PASS" xr:uid="{E03FAE3A-9FF7-4B84-9D88-B772153E221E}"/>
-    <hyperlink ref="I36" location="Product!A25" display="PASS" xr:uid="{CAAF4CC5-056F-44A2-8F2B-E10364737589}"/>
+    <hyperlink ref="I8" location="Product!A3" display="FAIL" xr:uid="{807EAF35-E764-4257-B60E-15EF59B4DE49}"/>
+    <hyperlink ref="I10" location="Product!A6" display="PASS" xr:uid="{DEDD730C-C338-4627-8F85-E74D553BDBE7}"/>
+    <hyperlink ref="I9" location="Product!A5" display="PASS" xr:uid="{7E8BCDF1-B2B7-405F-B563-4FA74669AFEA}"/>
+    <hyperlink ref="I11" location="Product!A7" display="PASS" xr:uid="{623C1634-DA33-44B5-9A0A-982408E1032D}"/>
+    <hyperlink ref="I12" location="Product!A8" display="PASS" xr:uid="{E56AC82C-3B4A-4429-AD9F-B93E06CDAD20}"/>
+    <hyperlink ref="I13" location="Product!A9" display="PASS" xr:uid="{CB189510-6D9D-42BA-B46E-BB1282D5B47C}"/>
+    <hyperlink ref="I14" location="Product!A10" display="PASS" xr:uid="{5E5D8DD4-B664-46A5-8F03-DF29E136DB83}"/>
+    <hyperlink ref="I15" location="Product!A11" display="PASS" xr:uid="{8750CEB0-74FE-4540-BA7D-252808363D70}"/>
+    <hyperlink ref="I17" location="Product!A15" display="FAIL" xr:uid="{CF15E949-6C74-4FF6-91B7-958EE84586CC}"/>
+    <hyperlink ref="I16" location="Product!A12" display="FAIL" xr:uid="{78281A62-6F2D-48E9-84A5-7E9FE2E1AB7E}"/>
+    <hyperlink ref="I18" location="Product!A17" display="FAIL" xr:uid="{4960BBA6-983B-45B4-8918-B103EF03CA3C}"/>
+    <hyperlink ref="I19" location="Product!A19" display="FAIL" xr:uid="{BE6D9797-1B1D-4AC9-9F6E-ED4D3594DD24}"/>
+    <hyperlink ref="I20" location="Product!A21" display="PASS" xr:uid="{FA36EBE5-5ED2-4EC8-9388-47BF97541065}"/>
+    <hyperlink ref="I21" location="Product!A22" display="PASS" xr:uid="{B580A74E-6F2B-451D-92C4-82482DB0774B}"/>
+    <hyperlink ref="I22" location="Product!A23" display="PASS" xr:uid="{A836F2BC-B709-4D03-A5EF-AE385A03F7DC}"/>
+    <hyperlink ref="I23" location="Product!A24" display="PASS" xr:uid="{E03FAE3A-9FF7-4B84-9D88-B772153E221E}"/>
+    <hyperlink ref="I24" location="Product!A25" display="PASS" xr:uid="{CAAF4CC5-056F-44A2-8F2B-E10364737589}"/>
+    <hyperlink ref="I25" location="Product!A26" display="FAIL" xr:uid="{0E72000F-45A9-4BFA-84C6-5E3803FFCD58}"/>
+    <hyperlink ref="I26" location="Product!A27" display="FAIL" xr:uid="{46520EF7-C560-4E69-B1C6-D4AA9D01020B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8124,10 +7225,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF09A374-A999-4B81-A430-C972CF611ADA}">
-  <dimension ref="A2:K25"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8145,767 +7247,891 @@
     <col min="11" max="11" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
     <row r="2" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="J2" s="3" t="s">
+      <c r="A2" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="32" t="s">
         <v>62</v>
       </c>
+      <c r="C2" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="17">
+        <v>45727.839618055557</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="K2" s="16" t="s">
-        <v>208</v>
+        <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31" t="s">
-        <v>210</v>
-      </c>
-      <c r="F3" s="18">
-        <v>45727.839618055557</v>
+    <row r="3" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="33"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="17">
+        <v>45727.854421296295</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>217</v>
+        <v>91</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="K3" s="17" t="s">
-        <v>211</v>
+        <v>32</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="32"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="18">
-        <v>45727.854421296295</v>
+      <c r="A4" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="17">
+        <v>45727.906504629631</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>59</v>
+        <v>91</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>41</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="K4" s="17" t="s">
-        <v>213</v>
+        <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="28" t="s">
-        <v>24</v>
+    <row r="5" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
+        <v>20</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="F5" s="18">
-        <v>45727.906504629631</v>
+        <v>85</v>
+      </c>
+      <c r="F5" s="17">
+        <v>45727.901932870373</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>59</v>
+        <v>91</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>41</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>222</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A6" s="28" t="s">
-        <v>25</v>
+      <c r="A6" s="27" t="s">
+        <v>98</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>218</v>
+        <v>48</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="F6" s="18">
-        <v>45727.901932870373</v>
+        <v>85</v>
+      </c>
+      <c r="F6" s="17">
+        <v>45727.907893518517</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>59</v>
+        <v>91</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>41</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>221</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
-        <v>223</v>
+      <c r="A7" s="27" t="s">
+        <v>99</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="F7" s="18">
-        <v>45727.907893518517</v>
+        <v>85</v>
+      </c>
+      <c r="F7" s="17">
+        <v>45727.910671296297</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>59</v>
+        <v>91</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>41</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>221</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A8" s="28" t="s">
-        <v>224</v>
+    <row r="8" spans="1:11" ht="132" x14ac:dyDescent="0.3">
+      <c r="A8" s="27" t="s">
+        <v>23</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="F8" s="18">
-        <v>45727.910671296297</v>
+        <v>85</v>
+      </c>
+      <c r="F8" s="17">
+        <v>45728.794699074075</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>59</v>
+        <v>103</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>41</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>225</v>
+        <v>55</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="K8" s="2"/>
+        <v>101</v>
+      </c>
     </row>
-    <row r="9" spans="1:11" ht="132" x14ac:dyDescent="0.3">
-      <c r="A9" s="28" t="s">
-        <v>28</v>
+    <row r="9" spans="1:11" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="27" t="s">
+        <v>24</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="F9" s="18">
-        <v>45728.794699074075</v>
+        <v>85</v>
+      </c>
+      <c r="F9" s="17">
+        <v>45728.819004629629</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>59</v>
+        <v>92</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>41</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>226</v>
+        <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="28" t="s">
-        <v>29</v>
+    <row r="10" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A10" s="27" t="s">
+        <v>25</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="F10" s="18">
-        <v>45728.819004629629</v>
+        <v>85</v>
+      </c>
+      <c r="F10" s="17">
+        <v>45728.821087962962</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>59</v>
+        <v>91</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>41</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>229</v>
+        <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A11" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>90</v>
+    <row r="11" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>112</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="F11" s="18">
-        <v>45728.821087962962</v>
+      <c r="E11" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="17">
+        <v>45729.850254629629</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>80</v>
+        <v>91</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="32" t="s">
+        <v>139</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>231</v>
+        <v>141</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="B12" s="31" t="s">
-        <v>237</v>
-      </c>
+    <row r="12" spans="1:11" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="33"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="31" t="s">
-        <v>210</v>
-      </c>
-      <c r="F12" s="18">
-        <v>45729.850254629629</v>
+        <v>174</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="E12" s="32"/>
+      <c r="F12" s="17">
+        <v>45728.904421296298</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="I12" s="31" t="s">
-        <v>264</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>266</v>
+        <v>135</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32" t="s">
+        <v>140</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>267</v>
+        <v>137</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="32"/>
-      <c r="B13" s="31"/>
+    <row r="13" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="33"/>
+      <c r="B13" s="32"/>
       <c r="C13" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>243</v>
-      </c>
-      <c r="E13" s="31"/>
-      <c r="F13" s="18">
-        <v>45728.904421296298</v>
+        <v>116</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="E13" s="32"/>
+      <c r="F13" s="17">
+        <v>45728.862754629627</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>260</v>
+        <v>136</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31" t="s">
-        <v>265</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
       <c r="K13" s="2" t="s">
-        <v>262</v>
+        <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="32"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>244</v>
-      </c>
-      <c r="E14" s="31"/>
-      <c r="F14" s="18">
-        <v>45728.862754629627</v>
+    <row r="14" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" s="31"/>
+      <c r="E14" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="17">
+        <v>45728.844004629631</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
+        <v>92</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="K14" s="2" t="s">
-        <v>263</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="C15" s="34" t="s">
+      <c r="A15" s="33"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="17">
+        <v>45728.850254629629</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A16" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="17">
+        <v>45729.887060185189</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="30"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="E17" s="32"/>
+      <c r="F17" s="17">
+        <v>45729.898865740739</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" s="17">
+        <v>45730.857199074075</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="30"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="E19" s="31"/>
+      <c r="F19" s="17">
+        <v>45730.907893518517</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" s="17">
+        <v>45731.473171296297</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="330" x14ac:dyDescent="0.3">
+      <c r="A21" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" s="17">
+        <v>45731.555810185186</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="99" x14ac:dyDescent="0.3">
+      <c r="A22" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F22" s="17">
+        <v>45731.557893518519</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="346.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F23" s="17">
+        <v>45731.572476851848</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="396" x14ac:dyDescent="0.3">
+      <c r="A24" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F24" s="17">
+        <v>45731.666226851848</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D25" s="25"/>
+      <c r="E25" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25" s="17">
+        <v>45733.83289351852</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I25" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="30"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="E26" s="31"/>
+      <c r="F26" s="17">
+        <v>45736.83289351852</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I26" s="32"/>
+      <c r="J26" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="D15" s="34"/>
-      <c r="E15" s="31" t="s">
+    </row>
+    <row r="27" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="30" t="s">
         <v>210</v>
       </c>
-      <c r="F15" s="18">
-        <v>45728.844004629631</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>235</v>
+      <c r="B27" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="D27" s="25"/>
+      <c r="E27" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="F27" s="17">
+        <v>45736.83289351852</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I27" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>236</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="32"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="18">
-        <v>45728.850254629629</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="A17" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="B17" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="C17" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" s="31" t="s">
-        <v>210</v>
-      </c>
-      <c r="F17" s="18">
-        <v>45729.887060185189</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="33"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="26" t="s">
-        <v>243</v>
-      </c>
-      <c r="E18" s="31"/>
-      <c r="F18" s="18">
-        <v>45729.898865740739</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="33" t="s">
-        <v>278</v>
-      </c>
-      <c r="B19" s="31" t="s">
-        <v>290</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E19" s="34" t="s">
-        <v>210</v>
-      </c>
-      <c r="F19" s="18">
-        <v>45730.857199074075</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="H19" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="33"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="D20" s="26" t="s">
-        <v>244</v>
-      </c>
-      <c r="E20" s="34"/>
-      <c r="F20" s="18">
-        <v>45730.907893518517</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>297</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="F21" s="18">
-        <v>45731.473171296297</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="330" x14ac:dyDescent="0.3">
-      <c r="A22" s="20" t="s">
-        <v>298</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>244</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="F22" s="18">
-        <v>45731.555810185186</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="H22" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="99" x14ac:dyDescent="0.3">
-      <c r="A23" s="20" t="s">
-        <v>301</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="D23" s="26" t="s">
-        <v>297</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="F23" s="18">
-        <v>45731.557893518519</v>
-      </c>
-      <c r="H23" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="346.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="20" t="s">
-        <v>319</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="D24" s="26" t="s">
-        <v>243</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="F24" s="18">
-        <v>45731.572476851848</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="H24" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="396" x14ac:dyDescent="0.3">
-      <c r="A25" s="20" t="s">
-        <v>331</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="F25" s="18">
-        <v>45731.666226851848</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="H25" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>330</v>
+    <row r="28" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="30"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="E28" s="31"/>
+      <c r="F28" s="17">
+        <v>45752.814837962964</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I28" s="32"/>
+      <c r="J28" s="2" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:B14"/>
+  <mergeCells count="30">
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="E16:E17"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A3:A4" location="Testcase!A20" display="TC-PR-001" xr:uid="{BAF89767-6968-4694-B41E-9BA5F84676F4}"/>
-    <hyperlink ref="A6" location="Testcase!A22" display="TC-PR-003" xr:uid="{909FC8BB-EB48-45F1-BB2F-C0109E1D4CC5}"/>
-    <hyperlink ref="A5" location="Testcase!A21" display="TC-PR-002" xr:uid="{5003DD96-8F69-4A54-8F51-4C3467979C41}"/>
-    <hyperlink ref="A7" location="Testcase!A23" display="TC-PR-004" xr:uid="{96602370-6BBC-469E-96E0-68E53D6BD990}"/>
-    <hyperlink ref="A8" location="Testcase!A24" display="TC-PR-005" xr:uid="{F7188A28-EEC9-48DA-AEB9-DE4272AA4B17}"/>
-    <hyperlink ref="A9" location="Testcase!A25" display="TC-PR-006" xr:uid="{E454319A-ED8E-42EF-AB41-4E0543F96151}"/>
-    <hyperlink ref="A10" location="Testcase!A26" display="TC-PR-007" xr:uid="{98471197-EF70-4C18-9A80-3152F5BFBBFF}"/>
-    <hyperlink ref="A11" location="Testcase!A27" display="TC-PR-008" xr:uid="{33A32BD7-4542-400D-8704-3548AFA7E140}"/>
-    <hyperlink ref="A15" location="Testcase!A29" display="TC-PR-010" xr:uid="{B4BCDD2B-DD07-4B34-91DE-9DC3BCCDF70E}"/>
-    <hyperlink ref="A12" location="Testcase!A28" display="TC-PR-009" xr:uid="{EDB43B30-BA2A-4B28-A209-893EF6C03358}"/>
-    <hyperlink ref="D13" location="Product_Link!A3" display="TRIGGER" xr:uid="{DCEFB688-03A7-423F-A176-9E29C01FDF3F}"/>
-    <hyperlink ref="D14" location="Product_Link!A4" display="PROCEDURE" xr:uid="{00590F7A-1476-440E-AB91-8E05A7D10550}"/>
-    <hyperlink ref="A17" location="Testcase!A30" display="TC-PR-011" xr:uid="{B5122B69-F17C-452F-BE41-132A94C926DD}"/>
-    <hyperlink ref="D18" location="Product_Link!A5" display="TRIGGER" xr:uid="{D7484DD1-5DA3-45CD-9D37-8E301313AB3F}"/>
-    <hyperlink ref="A19" location="Testcase!A31" display="TC-PR-012" xr:uid="{7E957F92-B614-4B51-B5F2-457252554C58}"/>
-    <hyperlink ref="D20" location="Product_Link!A4" display="PROCEDURE" xr:uid="{404CE093-E4D1-40E8-B043-60B058EB7091}"/>
-    <hyperlink ref="A21" location="Testcase!A33" display="TC-PR-013" xr:uid="{96F22575-9AAB-4BC9-A623-3FDF9CFF3E44}"/>
-    <hyperlink ref="D21" location="Product_Link!A6" display="PROCEDURE" xr:uid="{0BF75D6C-728A-455D-9D15-D6E458D66580}"/>
-    <hyperlink ref="A22" location="Testcase!A33" display="TC-PR-014" xr:uid="{86979FED-1AA3-4A04-B2BF-2BAD5AB19CEA}"/>
-    <hyperlink ref="A23" location="Testcase!A34" display="TC-PR-015" xr:uid="{2A869D9D-A7A0-4C25-9956-22073D314020}"/>
-    <hyperlink ref="D22" location="Product_Link!A7" display="PROCEDURE" xr:uid="{B8E223E3-0021-410D-BF02-94858BC1493E}"/>
-    <hyperlink ref="D23" location="Product_Link!A8" display="EVENT" xr:uid="{DE1E8CCD-AC02-4706-A1E0-BCF6391B1668}"/>
-    <hyperlink ref="A24" location="Testcase!A35" display="TC-PR-016" xr:uid="{1C6D9F98-9DB8-4201-B25E-269CC3F066B6}"/>
-    <hyperlink ref="D24" location="Product_Link!A9" display="TRIGGER" xr:uid="{E0D3F259-B1F7-43D2-9EB4-23BF5AD93376}"/>
-    <hyperlink ref="A25" location="Testcase!A36" display="TC-PR-017" xr:uid="{0F49F029-995C-492F-9634-BBA2B071ABBC}"/>
+    <hyperlink ref="A2:A3" location="Testcase!A20" display="TC-PR-001" xr:uid="{BAF89767-6968-4694-B41E-9BA5F84676F4}"/>
+    <hyperlink ref="A5" location="Testcase!A22" display="TC-PR-003" xr:uid="{909FC8BB-EB48-45F1-BB2F-C0109E1D4CC5}"/>
+    <hyperlink ref="A4" location="Testcase!A21" display="TC-PR-002" xr:uid="{5003DD96-8F69-4A54-8F51-4C3467979C41}"/>
+    <hyperlink ref="A6" location="Testcase!A23" display="TC-PR-004" xr:uid="{96602370-6BBC-469E-96E0-68E53D6BD990}"/>
+    <hyperlink ref="A7" location="Testcase!A24" display="TC-PR-005" xr:uid="{F7188A28-EEC9-48DA-AEB9-DE4272AA4B17}"/>
+    <hyperlink ref="A8" location="Testcase!A25" display="TC-PR-006" xr:uid="{E454319A-ED8E-42EF-AB41-4E0543F96151}"/>
+    <hyperlink ref="A9" location="Testcase!A26" display="TC-PR-007" xr:uid="{98471197-EF70-4C18-9A80-3152F5BFBBFF}"/>
+    <hyperlink ref="A10" location="Testcase!A27" display="TC-PR-008" xr:uid="{33A32BD7-4542-400D-8704-3548AFA7E140}"/>
+    <hyperlink ref="A14" location="Testcase!A29" display="TC-PR-010" xr:uid="{B4BCDD2B-DD07-4B34-91DE-9DC3BCCDF70E}"/>
+    <hyperlink ref="A11" location="Testcase!A28" display="TC-PR-009" xr:uid="{EDB43B30-BA2A-4B28-A209-893EF6C03358}"/>
+    <hyperlink ref="D12" location="Product_Link!A3" display="TRIGGER" xr:uid="{DCEFB688-03A7-423F-A176-9E29C01FDF3F}"/>
+    <hyperlink ref="D13" location="Product_Link!A4" display="PROCEDURE" xr:uid="{00590F7A-1476-440E-AB91-8E05A7D10550}"/>
+    <hyperlink ref="A16" location="Testcase!A30" display="TC-PR-011" xr:uid="{B5122B69-F17C-452F-BE41-132A94C926DD}"/>
+    <hyperlink ref="D17" location="Product_Link!A5" display="TRIGGER" xr:uid="{D7484DD1-5DA3-45CD-9D37-8E301313AB3F}"/>
+    <hyperlink ref="A18" location="Testcase!A31" display="TC-PR-012" xr:uid="{7E957F92-B614-4B51-B5F2-457252554C58}"/>
+    <hyperlink ref="D19" location="Product_Link!A4" display="PROCEDURE" xr:uid="{404CE093-E4D1-40E8-B043-60B058EB7091}"/>
+    <hyperlink ref="A20" location="Testcase!A33" display="TC-PR-013" xr:uid="{96F22575-9AAB-4BC9-A623-3FDF9CFF3E44}"/>
+    <hyperlink ref="D20" location="Product_Link!A6" display="PROCEDURE" xr:uid="{0BF75D6C-728A-455D-9D15-D6E458D66580}"/>
+    <hyperlink ref="A21" location="Testcase!A33" display="TC-PR-014" xr:uid="{86979FED-1AA3-4A04-B2BF-2BAD5AB19CEA}"/>
+    <hyperlink ref="A22" location="Testcase!A34" display="TC-PR-015" xr:uid="{2A869D9D-A7A0-4C25-9956-22073D314020}"/>
+    <hyperlink ref="D21" location="Product_Link!A7" display="PROCEDURE" xr:uid="{B8E223E3-0021-410D-BF02-94858BC1493E}"/>
+    <hyperlink ref="D22" location="Product_Link!A8" display="EVENT" xr:uid="{DE1E8CCD-AC02-4706-A1E0-BCF6391B1668}"/>
+    <hyperlink ref="A23" location="Testcase!A35" display="TC-PR-016" xr:uid="{1C6D9F98-9DB8-4201-B25E-269CC3F066B6}"/>
+    <hyperlink ref="D23" location="Product_Link!A9" display="TRIGGER" xr:uid="{E0D3F259-B1F7-43D2-9EB4-23BF5AD93376}"/>
+    <hyperlink ref="A24" location="Testcase!A36" display="TC-PR-017" xr:uid="{0F49F029-995C-492F-9634-BBA2B071ABBC}"/>
+    <hyperlink ref="A25" location="Testcase!A37" display="TC-PR-018" xr:uid="{628CAD10-9456-4FC1-877F-8A3FC60F071C}"/>
+    <hyperlink ref="A27" location="Testcase!A38" display="TC-PR-019" xr:uid="{BECBA9F7-892B-41C8-ABA0-E3C35030B9BB}"/>
+    <hyperlink ref="D28" location="Product_Link!A11" display="INDEX" xr:uid="{368F6053-5B45-424C-A216-C66CD5C7428B}"/>
+    <hyperlink ref="D26" location="Product_Link!A10" display="INDEX" xr:uid="{1E9AF774-DAC5-4505-BD3D-D65865B30552}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8916,8 +8142,8 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8933,241 +8159,275 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>256</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>246</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>247</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>248</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>249</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>250</v>
+      <c r="A1" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="175.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
-        <v>251</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>252</v>
+      <c r="A2" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>127</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="E2" s="27" t="s">
-        <v>259</v>
-      </c>
-      <c r="F2" s="25">
+        <v>128</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2" s="24">
         <v>45728</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>300</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
-        <v>254</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>244</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>257</v>
+      <c r="A3" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>132</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="E3" s="27" t="s">
-        <v>255</v>
-      </c>
-      <c r="F3" s="25">
+        <v>133</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="F3" s="24">
         <v>45729</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="225" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
-        <v>272</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>274</v>
+      <c r="A4" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>149</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>273</v>
-      </c>
-      <c r="F4" s="25">
+        <v>150</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F4" s="24">
         <v>45729</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>276</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>244</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>282</v>
+      <c r="A5" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>157</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>294</v>
-      </c>
-      <c r="F5" s="25">
+        <v>165</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="F5" s="24">
         <v>45730</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="135" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
-        <v>293</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>297</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>296</v>
+      <c r="A6" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>171</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>295</v>
-      </c>
-      <c r="F6" s="25">
+        <v>164</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="F6" s="24">
         <v>45731</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="342" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
-        <v>307</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>244</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>306</v>
+      <c r="A7" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>181</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>308</v>
-      </c>
-      <c r="F7" s="25">
+        <v>180</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="F7" s="24">
         <v>45731</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="165" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
-        <v>311</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>297</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>310</v>
+      <c r="A8" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>185</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>309</v>
-      </c>
-      <c r="F8" s="25">
+        <v>179</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="F8" s="24">
         <v>45731</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="20" t="s">
-        <v>317</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>318</v>
+      <c r="A9" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>193</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>320</v>
-      </c>
-      <c r="F9" s="25">
+        <v>197</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="F9" s="24">
         <v>45731</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E10" s="27"/>
+    <row r="10" spans="1:7" ht="240" x14ac:dyDescent="0.3">
+      <c r="A10" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="F10" s="24">
+        <v>45736</v>
+      </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E11" s="27"/>
+    <row r="11" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="F11" s="24">
+        <v>45752</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E12" s="27"/>
+      <c r="E12" s="26"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E13" s="27"/>
+      <c r="E13" s="26"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E14" s="27"/>
+      <c r="E14" s="26"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E15" s="27"/>
+      <c r="E15" s="26"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E16" s="27"/>
+      <c r="E16" s="26"/>
     </row>
     <row r="17" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E17" s="27"/>
+      <c r="E17" s="26"/>
     </row>
     <row r="18" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E18" s="27"/>
+      <c r="E18" s="26"/>
     </row>
     <row r="19" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E19" s="27"/>
+      <c r="E19" s="26"/>
     </row>
     <row r="20" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E20" s="27"/>
+      <c r="E20" s="26"/>
     </row>
     <row r="21" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E21" s="27"/>
+      <c r="E21" s="26"/>
     </row>
     <row r="22" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E22" s="27"/>
+      <c r="E22" s="26"/>
     </row>
     <row r="23" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E23" s="27"/>
+      <c r="E23" s="26"/>
     </row>
     <row r="24" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E24" s="27"/>
+      <c r="E24" s="26"/>
     </row>
     <row r="25" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E25" s="27"/>
+      <c r="E25" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -9180,6 +8440,8 @@
     <hyperlink ref="A7" location="Product!A22" display="TC-PR-PT-006" xr:uid="{D1413AFE-CF49-426D-A4E9-06EF9AC1926B}"/>
     <hyperlink ref="A8" location="Product!A23" display="TC-PR-PT-007" xr:uid="{83373AB8-ED69-4446-A423-1228DB445371}"/>
     <hyperlink ref="A9" location="Product!A23" display="TC-PR-PT-007" xr:uid="{A4F84E59-28A9-4BAC-B7BC-CBB031AFC121}"/>
+    <hyperlink ref="A10" location="Product!A25" display="TC-PR-PT-009" xr:uid="{B96373D5-7E09-4D42-8625-67EF65D86053}"/>
+    <hyperlink ref="A11" location="Product!A26" display="TC-PR-PT-009" xr:uid="{131A2C54-93CA-46B2-A1FE-71ABB40D998B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
